--- a/callenge3_2/courses.xlsx
+++ b/callenge3_2/courses.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shilei/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
     <sheet name="time" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -162,7 +154,7 @@
     <t>jQuery翻转拼图游戏</t>
   </si>
   <si>
-    <t xml:space="preserve">R语言实现金融数据的时间序列分析及建模 </t>
+    <t>R语言实现金融数据的时间序列分析及建模</t>
   </si>
   <si>
     <t>Kali 渗透测试 - Web 应用攻击实战</t>
@@ -321,7 +313,7 @@
     <t>Node.js上传文件实例</t>
   </si>
   <si>
-    <t xml:space="preserve">C 语言实现Linux cp 命令  </t>
+    <t>C 语言实现Linux cp 命令</t>
   </si>
   <si>
     <t>Makefile基础教程</t>
@@ -423,7 +415,7 @@
     <t>实验楼Python研发工程师</t>
   </si>
   <si>
-    <t xml:space="preserve">Python 实现 Redis 异步客户端 </t>
+    <t>Python 实现 Redis 异步客户端</t>
   </si>
   <si>
     <t>Scala 专题教程 - 隐式变换和隐式参数</t>
@@ -621,13 +613,13 @@
     <t>Spark 基础之 DataFrame 高阶应用技巧</t>
   </si>
   <si>
-    <t xml:space="preserve"> jQuery在购物车的使用</t>
+    <t>jQuery在购物车的使用</t>
   </si>
   <si>
     <t>使用 Electron 编写跨平台桌面应用</t>
   </si>
   <si>
-    <t xml:space="preserve">C语言实现Linux touch命令 </t>
+    <t>C语言实现Linux touch命令</t>
   </si>
   <si>
     <t>使用OpenCV&amp;&amp;C++进行模板匹配</t>
@@ -717,7 +709,7 @@
     <t>DVWA之暴力破解攻击</t>
   </si>
   <si>
-    <t xml:space="preserve">Hadoop 分布式文件系统——导入和导出数据  </t>
+    <t>Hadoop 分布式文件系统——导入和导出数据</t>
   </si>
   <si>
     <t>掌阅科技Python工程师</t>
@@ -735,7 +727,7 @@
     <t>Python实现网站模拟登陆</t>
   </si>
   <si>
-    <t xml:space="preserve">基于腾讯文智的情感分析 </t>
+    <t>基于腾讯文智的情感分析</t>
   </si>
   <si>
     <t>C++ 打造 Markdown 解析器</t>
@@ -1347,7 +1339,7 @@
     <t>JDK 核心 API</t>
   </si>
   <si>
-    <t xml:space="preserve">Linux Web运维（Nginx）实战 </t>
+    <t>Linux Web运维（Nginx）实战</t>
   </si>
   <si>
     <t>Redis基础教程</t>
@@ -1498,7 +1490,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1552,6 +1544,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1856,18 +1851,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C485"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="45.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1878,7 +1873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>42569.738194444442</v>
       </c>
@@ -1889,7 +1884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>42580.431944444441</v>
       </c>
@@ -1900,7 +1895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>42561.39166666667</v>
       </c>
@@ -1911,7 +1906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>42571.637499999997</v>
       </c>
@@ -1922,7 +1917,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>42545.916666666657</v>
       </c>
@@ -1933,7 +1928,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>42565.603472222218</v>
       </c>
@@ -1944,9 +1939,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>42561.580555555563</v>
+        <v>42561.580555555571</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1955,7 +1950,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>42061.772916666669</v>
       </c>
@@ -1966,7 +1961,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>42537.449305555558</v>
       </c>
@@ -1977,7 +1972,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>42337.46597222222</v>
       </c>
@@ -1988,7 +1983,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>42084.005555555559</v>
       </c>
@@ -1999,7 +1994,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>42571.479861111111</v>
       </c>
@@ -2010,7 +2005,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>42562.757638888892</v>
       </c>
@@ -2021,7 +2016,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>42421.666666666657</v>
       </c>
@@ -2032,7 +2027,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>42597.431250000001</v>
       </c>
@@ -2043,9 +2038,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>42023.652083333327</v>
+        <v>42023.65208333332</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -2054,7 +2049,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>42526.442361111112</v>
       </c>
@@ -2065,7 +2060,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>42583.457638888889</v>
       </c>
@@ -2076,7 +2071,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>42584.406944444447</v>
       </c>
@@ -2087,7 +2082,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>41885.470138888893</v>
       </c>
@@ -2098,7 +2093,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>42486.459027777782</v>
       </c>
@@ -2109,7 +2104,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>41850.563888888893</v>
       </c>
@@ -2120,7 +2115,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>42576.643750000003</v>
       </c>
@@ -2131,7 +2126,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>42577.677083333343</v>
       </c>
@@ -2142,7 +2137,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>42596.720833333333</v>
       </c>
@@ -2153,7 +2148,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>42077.394444444442</v>
       </c>
@@ -2164,7 +2159,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>42540.696527777778</v>
       </c>
@@ -2175,7 +2170,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>42068.430555555547</v>
       </c>
@@ -2186,9 +2181,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>41767.660416666673</v>
+        <v>41767.66041666668</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -2197,7 +2192,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>41823.5625</v>
       </c>
@@ -2208,7 +2203,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>42065.429861111108</v>
       </c>
@@ -2219,7 +2214,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>41624.92083333333</v>
       </c>
@@ -2230,7 +2225,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>42569.420138888891</v>
       </c>
@@ -2241,7 +2236,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>42562.470833333333</v>
       </c>
@@ -2252,7 +2247,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>42577.447222222218</v>
       </c>
@@ -2263,7 +2258,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>42582.459027777782</v>
       </c>
@@ -2274,9 +2269,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>42619.424305555563</v>
+        <v>42619.424305555571</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -2285,7 +2280,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>41850.556250000001</v>
       </c>
@@ -2296,7 +2291,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>41836.409722222219</v>
       </c>
@@ -2307,7 +2302,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>41941.5625</v>
       </c>
@@ -2318,7 +2313,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>41599.822222222218</v>
       </c>
@@ -2329,7 +2324,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>42578.554861111108</v>
       </c>
@@ -2340,7 +2335,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>42337.465277777781</v>
       </c>
@@ -2351,7 +2346,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>42562.618750000001</v>
       </c>
@@ -2362,7 +2357,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>41842.380555555559</v>
       </c>
@@ -2373,7 +2368,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>41835.710416666669</v>
       </c>
@@ -2384,7 +2379,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>42499.680555555547</v>
       </c>
@@ -2395,7 +2390,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>42527.392361111109</v>
       </c>
@@ -2406,7 +2401,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>42563.729861111111</v>
       </c>
@@ -2417,7 +2412,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>42295.7</v>
       </c>
@@ -2428,7 +2423,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>42420.615972222222</v>
       </c>
@@ -2439,7 +2434,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>42501.603472222218</v>
       </c>
@@ -2450,7 +2445,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>41868.45208333333</v>
       </c>
@@ -2461,7 +2456,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>42318.568055555559</v>
       </c>
@@ -2472,7 +2467,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>41823.561805555553</v>
       </c>
@@ -2483,9 +2478,9 @@
         <v>330</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>42556.629166666673</v>
+        <v>42556.62916666668</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
@@ -2494,9 +2489,9 @@
         <v>330</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>41949.410416666673</v>
+        <v>41949.41041666668</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
@@ -2505,7 +2500,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>42080.675694444442</v>
       </c>
@@ -2516,7 +2511,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>42087.572916666657</v>
       </c>
@@ -2527,7 +2522,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>42534.547222222223</v>
       </c>
@@ -2538,7 +2533,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>41885.540972222218</v>
       </c>
@@ -2549,7 +2544,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>41850.556944444441</v>
       </c>
@@ -2560,7 +2555,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>42428.665277777778</v>
       </c>
@@ -2571,7 +2566,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>41850.56527777778</v>
       </c>
@@ -2582,7 +2577,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>41842.478472222218</v>
       </c>
@@ -2593,7 +2588,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>42245.490277777782</v>
       </c>
@@ -2604,7 +2599,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>41739.615277777782</v>
       </c>
@@ -2615,7 +2610,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>42562.422222222223</v>
       </c>
@@ -2626,7 +2621,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>42207.725694444453</v>
       </c>
@@ -2637,9 +2632,9 @@
         <v>396</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>42484.660416666673</v>
+        <v>42484.66041666668</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
@@ -2648,7 +2643,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>42556.570138888892</v>
       </c>
@@ -2659,7 +2654,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>42554.613888888889</v>
       </c>
@@ -2670,7 +2665,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>42563.57708333333</v>
       </c>
@@ -2681,7 +2676,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>41611.767361111109</v>
       </c>
@@ -2692,9 +2687,9 @@
         <v>408</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>42233.379166666673</v>
+        <v>42233.37916666668</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
@@ -2703,7 +2698,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>42534.552777777782</v>
       </c>
@@ -2714,7 +2709,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>41941.563194444447</v>
       </c>
@@ -2725,7 +2720,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>42061.415277777778</v>
       </c>
@@ -2736,7 +2731,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>42076.60833333333</v>
       </c>
@@ -2747,7 +2742,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>42541.470138888893</v>
       </c>
@@ -2758,9 +2753,9 @@
         <v>468</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>42535.745833333327</v>
+        <v>42535.74583333332</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
@@ -2769,7 +2764,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>42555.552777777782</v>
       </c>
@@ -2780,7 +2775,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>41941.563888888893</v>
       </c>
@@ -2791,7 +2786,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>42543.447222222218</v>
       </c>
@@ -2802,7 +2797,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>42443.436111111107</v>
       </c>
@@ -2813,7 +2808,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>42449.645833333343</v>
       </c>
@@ -2824,7 +2819,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>42568.428472222222</v>
       </c>
@@ -2835,7 +2830,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>42571.614583333343</v>
       </c>
@@ -2846,7 +2841,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>42225.748611111107</v>
       </c>
@@ -2857,7 +2852,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>42423.718055555553</v>
       </c>
@@ -2868,7 +2863,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>41935.698611111111</v>
       </c>
@@ -2879,7 +2874,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>42066.570138888892</v>
       </c>
@@ -2890,7 +2885,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>41921.781944444447</v>
       </c>
@@ -2901,7 +2896,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>41943.383333333331</v>
       </c>
@@ -2912,7 +2907,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>42199.986111111109</v>
       </c>
@@ -2923,7 +2918,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>42537.563888888893</v>
       </c>
@@ -2934,7 +2929,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>41679.749305555553</v>
       </c>
@@ -2945,7 +2940,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>42093.477083333331</v>
       </c>
@@ -2956,7 +2951,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>42390.761805555558</v>
       </c>
@@ -2967,7 +2962,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" s="1">
         <v>42544.588194444441</v>
       </c>
@@ -2978,9 +2973,9 @@
         <v>570</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>42086.606944444437</v>
+        <v>42086.606944444429</v>
       </c>
       <c r="B102" t="s">
         <v>103</v>
@@ -2989,7 +2984,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" s="1">
         <v>41611.504861111112</v>
       </c>
@@ -3000,7 +2995,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" s="1">
         <v>42555.744444444441</v>
       </c>
@@ -3011,7 +3006,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" s="1">
         <v>41700.730555555558</v>
       </c>
@@ -3022,7 +3017,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106" s="1">
         <v>42443.415277777778</v>
       </c>
@@ -3033,9 +3028,9 @@
         <v>609</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>42554.464583333327</v>
+        <v>42554.46458333332</v>
       </c>
       <c r="B107" t="s">
         <v>108</v>
@@ -3044,7 +3039,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108" s="1">
         <v>42568.480555555558</v>
       </c>
@@ -3055,7 +3050,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109" s="1">
         <v>41870.402777777781</v>
       </c>
@@ -3066,7 +3061,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110" s="1">
         <v>42233.62222222222</v>
       </c>
@@ -3077,7 +3072,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111" s="1">
         <v>41935.695833333331</v>
       </c>
@@ -3088,7 +3083,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112" s="1">
         <v>42090.888888888891</v>
       </c>
@@ -3099,7 +3094,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113" s="1">
         <v>42493.622916666667</v>
       </c>
@@ -3110,7 +3105,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114" s="1">
         <v>42561.637499999997</v>
       </c>
@@ -3121,7 +3116,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115" s="1">
         <v>42235.411805555559</v>
       </c>
@@ -3132,7 +3127,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116" s="1">
         <v>42227.529166666667</v>
       </c>
@@ -3143,7 +3138,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117" s="1">
         <v>41948.461805555547</v>
       </c>
@@ -3154,7 +3149,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118" s="1">
         <v>42259.436111111107</v>
       </c>
@@ -3165,9 +3160,9 @@
         <v>708</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>42266.441666666673</v>
+        <v>42266.44166666668</v>
       </c>
       <c r="B119" t="s">
         <v>120</v>
@@ -3176,7 +3171,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120" s="1">
         <v>41943.604166666657</v>
       </c>
@@ -3187,7 +3182,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121" s="1">
         <v>41844.466666666667</v>
       </c>
@@ -3198,7 +3193,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122" s="1">
         <v>41712.577777777777</v>
       </c>
@@ -3209,7 +3204,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123" s="1">
         <v>42245.688888888893</v>
       </c>
@@ -3220,7 +3215,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124" s="1">
         <v>42541.586805555547</v>
       </c>
@@ -3231,7 +3226,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125" s="1">
         <v>41623.68472222222</v>
       </c>
@@ -3242,7 +3237,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126" s="1">
         <v>42070.556250000001</v>
       </c>
@@ -3253,9 +3248,9 @@
         <v>762</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>41933.629166666673</v>
+        <v>41933.62916666668</v>
       </c>
       <c r="B127" t="s">
         <v>128</v>
@@ -3264,9 +3259,9 @@
         <v>777</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>42535.566666666673</v>
+        <v>42535.56666666668</v>
       </c>
       <c r="B128" t="s">
         <v>129</v>
@@ -3275,7 +3270,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129" s="1">
         <v>41842.603472222218</v>
       </c>
@@ -3286,7 +3281,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130" s="1">
         <v>42077.559027777781</v>
       </c>
@@ -3297,7 +3292,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131" s="1">
         <v>42072.682638888888</v>
       </c>
@@ -3308,9 +3303,9 @@
         <v>804</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>42316.388194444437</v>
+        <v>42316.388194444429</v>
       </c>
       <c r="B132" t="s">
         <v>133</v>
@@ -3319,7 +3314,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133" s="1">
         <v>42247.417361111111</v>
       </c>
@@ -3330,7 +3325,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134" s="1">
         <v>42436.730555555558</v>
       </c>
@@ -3341,7 +3336,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135" s="1">
         <v>42228.525694444441</v>
       </c>
@@ -3352,7 +3347,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136" s="1">
         <v>42171.536805555559</v>
       </c>
@@ -3363,7 +3358,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137" s="1">
         <v>41610.45416666667</v>
       </c>
@@ -3374,7 +3369,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138" s="1">
         <v>41591.711805555547</v>
       </c>
@@ -3385,7 +3380,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139" s="1">
         <v>41935.695138888892</v>
       </c>
@@ -3396,7 +3391,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140" s="1">
         <v>42220.393750000003</v>
       </c>
@@ -3407,7 +3402,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141" s="1">
         <v>42449.713888888888</v>
       </c>
@@ -3418,7 +3413,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3">
       <c r="A142" s="1">
         <v>41857.659722222219</v>
       </c>
@@ -3429,7 +3424,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3">
       <c r="A143" s="1">
         <v>42260.452777777777</v>
       </c>
@@ -3440,7 +3435,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3">
       <c r="A144" s="1">
         <v>42315.47152777778</v>
       </c>
@@ -3451,9 +3446,9 @@
         <v>870</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>42337.722916666673</v>
+        <v>42337.72291666668</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
@@ -3462,7 +3457,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146" s="1">
         <v>42420.402777777781</v>
       </c>
@@ -3473,7 +3468,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147" s="1">
         <v>41737.436805555553</v>
       </c>
@@ -3484,7 +3479,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3">
       <c r="A148" s="1">
         <v>42361.553472222222</v>
       </c>
@@ -3495,7 +3490,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3">
       <c r="A149" s="1">
         <v>42322.563888888893</v>
       </c>
@@ -3506,9 +3501,9 @@
         <v>897</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>42246.575694444437</v>
+        <v>42246.575694444429</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -3517,7 +3512,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3">
       <c r="A151" s="1">
         <v>42368.459027777782</v>
       </c>
@@ -3528,7 +3523,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3">
       <c r="A152" s="1">
         <v>42583.70208333333</v>
       </c>
@@ -3539,7 +3534,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3">
       <c r="A153" s="1">
         <v>42339.692361111112</v>
       </c>
@@ -3550,7 +3545,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3">
       <c r="A154" s="1">
         <v>42406.412499999999</v>
       </c>
@@ -3561,7 +3556,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3">
       <c r="A155" s="1">
         <v>42477.661805555559</v>
       </c>
@@ -3572,7 +3567,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3">
       <c r="A156" s="1">
         <v>41603.303472222222</v>
       </c>
@@ -3583,7 +3578,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3">
       <c r="A157" s="1">
         <v>42366.771527777782</v>
       </c>
@@ -3594,7 +3589,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3">
       <c r="A158" s="1">
         <v>42221.390972222223</v>
       </c>
@@ -3605,7 +3600,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3">
       <c r="A159" s="1">
         <v>42315.423611111109</v>
       </c>
@@ -3616,7 +3611,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3">
       <c r="A160" s="1">
         <v>42238.606249999997</v>
       </c>
@@ -3627,7 +3622,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3">
       <c r="A161" s="1">
         <v>42205.741666666669</v>
       </c>
@@ -3638,7 +3633,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3">
       <c r="A162" s="1">
         <v>42405.420138888891</v>
       </c>
@@ -3649,9 +3644,9 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>41592.799305555563</v>
+        <v>41592.799305555571</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -3660,7 +3655,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3">
       <c r="A164" s="1">
         <v>42332.679166666669</v>
       </c>
@@ -3671,9 +3666,9 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>42433.870833333327</v>
+        <v>42433.87083333332</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -3682,9 +3677,9 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>41669.441666666673</v>
+        <v>41669.44166666668</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -3693,7 +3688,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3">
       <c r="A167" s="1">
         <v>42214.636805555558</v>
       </c>
@@ -3704,7 +3699,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3">
       <c r="A168" s="1">
         <v>41941.489583333343</v>
       </c>
@@ -3715,7 +3710,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3">
       <c r="A169" s="1">
         <v>42221.422222222223</v>
       </c>
@@ -3726,7 +3721,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3">
       <c r="A170" s="1">
         <v>42259.454861111109</v>
       </c>
@@ -3737,7 +3732,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3">
       <c r="A171" s="1">
         <v>42242.747916666667</v>
       </c>
@@ -3748,7 +3743,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3">
       <c r="A172" s="1">
         <v>41618.644444444442</v>
       </c>
@@ -3759,7 +3754,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3">
       <c r="A173" s="1">
         <v>41743.747916666667</v>
       </c>
@@ -3770,7 +3765,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3">
       <c r="A174" s="1">
         <v>42107.5625</v>
       </c>
@@ -3781,7 +3776,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3">
       <c r="A175" s="1">
         <v>42207.522916666669</v>
       </c>
@@ -3792,7 +3787,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3">
       <c r="A176" s="1">
         <v>41940.717361111107</v>
       </c>
@@ -3803,7 +3798,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3">
       <c r="A177" s="1">
         <v>41744.600694444453</v>
       </c>
@@ -3814,7 +3809,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3">
       <c r="A178" s="1">
         <v>42556.697916666657</v>
       </c>
@@ -3825,7 +3820,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3">
       <c r="A179" s="1">
         <v>42368.584027777782</v>
       </c>
@@ -3836,7 +3831,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3">
       <c r="A180" s="1">
         <v>41606.474999999999</v>
       </c>
@@ -3847,7 +3842,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3">
       <c r="A181" s="1">
         <v>42309.745138888888</v>
       </c>
@@ -3858,7 +3853,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3">
       <c r="A182" s="1">
         <v>42551.420138888891</v>
       </c>
@@ -3869,7 +3864,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3">
       <c r="A183" s="1">
         <v>42549.452777777777</v>
       </c>
@@ -3880,7 +3875,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3">
       <c r="A184" s="1">
         <v>41729.684027777781</v>
       </c>
@@ -3891,7 +3886,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3">
       <c r="A185" s="1">
         <v>42053.591666666667</v>
       </c>
@@ -3902,7 +3897,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3">
       <c r="A186" s="1">
         <v>42211.484722222223</v>
       </c>
@@ -3913,7 +3908,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3">
       <c r="A187" s="1">
         <v>42249.425694444442</v>
       </c>
@@ -3924,7 +3919,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3">
       <c r="A188" s="1">
         <v>42191.670138888891</v>
       </c>
@@ -3935,7 +3930,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3">
       <c r="A189" s="1">
         <v>42224.353472222218</v>
       </c>
@@ -3946,7 +3941,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3">
       <c r="A190" s="1">
         <v>41841.556944444441</v>
       </c>
@@ -3957,7 +3952,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3">
       <c r="A191" s="1">
         <v>42226.430555555547</v>
       </c>
@@ -3968,7 +3963,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3">
       <c r="A192" s="1">
         <v>42569.404861111107</v>
       </c>
@@ -3979,7 +3974,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193" s="1">
         <v>42211.458333333343</v>
       </c>
@@ -3990,7 +3985,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194" s="1">
         <v>42495.938888888893</v>
       </c>
@@ -4001,7 +3996,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195" s="1">
         <v>42127.304861111108</v>
       </c>
@@ -4012,7 +4007,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196" s="1">
         <v>42269.682638888888</v>
       </c>
@@ -4023,7 +4018,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3">
       <c r="A197" s="1">
         <v>42178.418055555558</v>
       </c>
@@ -4034,7 +4029,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3">
       <c r="A198" s="1">
         <v>42193.667361111111</v>
       </c>
@@ -4045,7 +4040,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3">
       <c r="A199" s="1">
         <v>42336.838194444441</v>
       </c>
@@ -4056,7 +4051,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3">
       <c r="A200" s="1">
         <v>41666.427777777782</v>
       </c>
@@ -4067,7 +4062,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3">
       <c r="A201" s="1">
         <v>42389.905555555553</v>
       </c>
@@ -4078,7 +4073,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3">
       <c r="A202" s="1">
         <v>42253.405555555553</v>
       </c>
@@ -4089,7 +4084,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3">
       <c r="A203" s="1">
         <v>42260.382638888892</v>
       </c>
@@ -4100,7 +4095,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3">
       <c r="A204" s="1">
         <v>41632.607638888891</v>
       </c>
@@ -4111,7 +4106,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3">
       <c r="A205" s="1">
         <v>42311.475694444453</v>
       </c>
@@ -4122,7 +4117,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3">
       <c r="A206" s="1">
         <v>41620.411805555559</v>
       </c>
@@ -4133,7 +4128,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3">
       <c r="A207" s="1">
         <v>42235.749305555553</v>
       </c>
@@ -4144,7 +4139,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3">
       <c r="A208" s="1">
         <v>42221.40902777778</v>
       </c>
@@ -4155,9 +4150,9 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3">
       <c r="A209" s="1">
-        <v>42255.731944444437</v>
+        <v>42255.731944444429</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4166,7 +4161,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3">
       <c r="A210" s="1">
         <v>41731.640277777777</v>
       </c>
@@ -4177,7 +4172,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3">
       <c r="A211" s="1">
         <v>42453.318055555559</v>
       </c>
@@ -4188,7 +4183,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3">
       <c r="A212" s="1">
         <v>41835.386805555558</v>
       </c>
@@ -4199,7 +4194,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3">
       <c r="A213" s="1">
         <v>42495.470833333333</v>
       </c>
@@ -4210,7 +4205,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3">
       <c r="A214" s="1">
         <v>41567.54791666667</v>
       </c>
@@ -4221,7 +4216,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3">
       <c r="A215" s="1">
         <v>42465.465277777781</v>
       </c>
@@ -4232,7 +4227,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3">
       <c r="A216" s="1">
         <v>42251.670138888891</v>
       </c>
@@ -4243,9 +4238,9 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3">
       <c r="A217" s="1">
-        <v>42168.745833333327</v>
+        <v>42168.74583333332</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4254,7 +4249,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3">
       <c r="A218" s="1">
         <v>42266.572222222218</v>
       </c>
@@ -4265,7 +4260,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3">
       <c r="A219" s="1">
         <v>42486.582638888889</v>
       </c>
@@ -4276,7 +4271,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3">
       <c r="A220" s="1">
         <v>42295.676388888889</v>
       </c>
@@ -4287,7 +4282,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3">
       <c r="A221" s="1">
         <v>42286.981249999997</v>
       </c>
@@ -4298,7 +4293,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3">
       <c r="A222" s="1">
         <v>42033.695833333331</v>
       </c>
@@ -4309,7 +4304,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3">
       <c r="A223" s="1">
         <v>41582.651388888888</v>
       </c>
@@ -4320,7 +4315,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3">
       <c r="A224" s="1">
         <v>42311.692361111112</v>
       </c>
@@ -4331,7 +4326,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3">
       <c r="A225" s="1">
         <v>41739.913888888892</v>
       </c>
@@ -4342,7 +4337,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3">
       <c r="A226" s="1">
         <v>42543.43472222222</v>
       </c>
@@ -4353,7 +4348,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3">
       <c r="A227" s="1">
         <v>42346.613888888889</v>
       </c>
@@ -4364,7 +4359,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3">
       <c r="A228" s="1">
         <v>42501.603472222218</v>
       </c>
@@ -4375,7 +4370,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3">
       <c r="A229" s="1">
         <v>41851.651388888888</v>
       </c>
@@ -4386,7 +4381,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3">
       <c r="A230" s="1">
         <v>42226.469444444447</v>
       </c>
@@ -4397,7 +4392,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3">
       <c r="A231" s="1">
         <v>42561.418055555558</v>
       </c>
@@ -4408,7 +4403,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3">
       <c r="A232" s="1">
         <v>42259.438888888893</v>
       </c>
@@ -4419,7 +4414,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3">
       <c r="A233" s="1">
         <v>42248.607638888891</v>
       </c>
@@ -4430,7 +4425,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3">
       <c r="A234" s="1">
         <v>42259.422222222223</v>
       </c>
@@ -4441,7 +4436,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3">
       <c r="A235" s="1">
         <v>42186.652777777781</v>
       </c>
@@ -4452,7 +4447,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3">
       <c r="A236" s="1">
         <v>41585.409722222219</v>
       </c>
@@ -4463,7 +4458,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3">
       <c r="A237" s="1">
         <v>41666.416666666657</v>
       </c>
@@ -4474,7 +4469,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3">
       <c r="A238" s="1">
         <v>41757.393750000003</v>
       </c>
@@ -4485,7 +4480,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3">
       <c r="A239" s="1">
         <v>42439.484722222223</v>
       </c>
@@ -4496,7 +4491,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3">
       <c r="A240" s="1">
         <v>42484.522222222222</v>
       </c>
@@ -4507,7 +4502,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3">
       <c r="A241" s="1">
         <v>41660.543055555558</v>
       </c>
@@ -4518,9 +4513,9 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3">
       <c r="A242" s="1">
-        <v>41581.606944444437</v>
+        <v>41581.606944444429</v>
       </c>
       <c r="B242" t="s">
         <v>243</v>
@@ -4529,7 +4524,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3">
       <c r="A243" s="1">
         <v>42247.379861111112</v>
       </c>
@@ -4540,7 +4535,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3">
       <c r="A244" s="1">
         <v>41723.61041666667</v>
       </c>
@@ -4551,7 +4546,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3">
       <c r="A245" s="1">
         <v>42492.474305555559</v>
       </c>
@@ -4562,7 +4557,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3">
       <c r="A246" s="1">
         <v>42361.405555555553</v>
       </c>
@@ -4573,7 +4568,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3">
       <c r="A247" s="1">
         <v>42186.636805555558</v>
       </c>
@@ -4584,9 +4579,9 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3">
       <c r="A248" s="1">
-        <v>42373.888194444437</v>
+        <v>42373.888194444429</v>
       </c>
       <c r="B248" t="s">
         <v>249</v>
@@ -4595,7 +4590,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3">
       <c r="A249" s="1">
         <v>41668.427777777782</v>
       </c>
@@ -4606,9 +4601,9 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3">
       <c r="A250" s="1">
-        <v>42204.433333333327</v>
+        <v>42204.43333333332</v>
       </c>
       <c r="B250" t="s">
         <v>251</v>
@@ -4617,9 +4612,9 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3">
       <c r="A251" s="1">
-        <v>41516.606944444437</v>
+        <v>41516.606944444429</v>
       </c>
       <c r="B251" t="s">
         <v>252</v>
@@ -4628,7 +4623,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3">
       <c r="A252" s="1">
         <v>42478.615972222222</v>
       </c>
@@ -4639,7 +4634,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3">
       <c r="A253" s="1">
         <v>41842.604861111111</v>
       </c>
@@ -4650,7 +4645,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3">
       <c r="A254" s="1">
         <v>41863.699305555558</v>
       </c>
@@ -4661,7 +4656,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3">
       <c r="A255" s="1">
         <v>42032.689583333333</v>
       </c>
@@ -4672,7 +4667,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3">
       <c r="A256" s="1">
         <v>42481.438888888893</v>
       </c>
@@ -4683,7 +4678,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3">
       <c r="A257" s="1">
         <v>42198.400000000001</v>
       </c>
@@ -4694,7 +4689,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3">
       <c r="A258" s="1">
         <v>41743.79791666667</v>
       </c>
@@ -4705,7 +4700,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3">
       <c r="A259" s="1">
         <v>42240.570833333331</v>
       </c>
@@ -4716,7 +4711,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3">
       <c r="A260" s="1">
         <v>42186.640972222223</v>
       </c>
@@ -4727,7 +4722,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3">
       <c r="A261" s="1">
         <v>41823.5625</v>
       </c>
@@ -4738,7 +4733,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3">
       <c r="A262" s="1">
         <v>42406.158333333333</v>
       </c>
@@ -4749,7 +4744,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3">
       <c r="A263" s="1">
         <v>41729.443749999999</v>
       </c>
@@ -4760,7 +4755,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3">
       <c r="A264" s="1">
         <v>42350.637499999997</v>
       </c>
@@ -4771,7 +4766,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3">
       <c r="A265" s="1">
         <v>42298.425000000003</v>
       </c>
@@ -4782,9 +4777,9 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3">
       <c r="A266" s="1">
-        <v>41757.450694444437</v>
+        <v>41757.450694444429</v>
       </c>
       <c r="B266" t="s">
         <v>267</v>
@@ -4793,7 +4788,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3">
       <c r="A267" s="1">
         <v>41596.763888888891</v>
       </c>
@@ -4804,7 +4799,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3">
       <c r="A268" s="1">
         <v>42444.465277777781</v>
       </c>
@@ -4815,7 +4810,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3">
       <c r="A269" s="1">
         <v>41941.59097222222</v>
       </c>
@@ -4826,7 +4821,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3">
       <c r="A270" s="1">
         <v>42319.694444444453</v>
       </c>
@@ -4837,7 +4832,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3">
       <c r="A271" s="1">
         <v>41674.595138888893</v>
       </c>
@@ -4848,7 +4843,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3">
       <c r="A272" s="1">
         <v>42290.469444444447</v>
       </c>
@@ -4859,7 +4854,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3">
       <c r="A273" s="1">
         <v>42290.736111111109</v>
       </c>
@@ -4870,7 +4865,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3">
       <c r="A274" s="1">
         <v>42211.460416666669</v>
       </c>
@@ -4881,7 +4876,7 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3">
       <c r="A275" s="1">
         <v>42417.461805555547</v>
       </c>
@@ -4892,7 +4887,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3">
       <c r="A276" s="1">
         <v>42162.679166666669</v>
       </c>
@@ -4903,7 +4898,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3">
       <c r="A277" s="1">
         <v>41556.709722222222</v>
       </c>
@@ -4914,7 +4909,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3">
       <c r="A278" s="1">
         <v>41597.765972222223</v>
       </c>
@@ -4925,7 +4920,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3">
       <c r="A279" s="1">
         <v>42024.573611111111</v>
       </c>
@@ -4936,7 +4931,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3">
       <c r="A280" s="1">
         <v>41744.574305555558</v>
       </c>
@@ -4947,7 +4942,7 @@
         <v>2883</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3">
       <c r="A281" s="1">
         <v>42557.43472222222</v>
       </c>
@@ -4958,7 +4953,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3">
       <c r="A282" s="1">
         <v>42331.462500000001</v>
       </c>
@@ -4969,7 +4964,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3">
       <c r="A283" s="1">
         <v>42317.407638888893</v>
       </c>
@@ -4980,7 +4975,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3">
       <c r="A284" s="1">
         <v>41668.682638888888</v>
       </c>
@@ -4991,7 +4986,7 @@
         <v>3048</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3">
       <c r="A285" s="1">
         <v>41851.657638888893</v>
       </c>
@@ -5002,7 +4997,7 @@
         <v>3051</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3">
       <c r="A286" s="1">
         <v>41675.828472222223</v>
       </c>
@@ -5013,7 +5008,7 @@
         <v>3084</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3">
       <c r="A287" s="1">
         <v>42217.900694444441</v>
       </c>
@@ -5024,7 +5019,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3">
       <c r="A288" s="1">
         <v>42364.423611111109</v>
       </c>
@@ -5035,7 +5030,7 @@
         <v>3189</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3">
       <c r="A289" s="1">
         <v>42380.418749999997</v>
       </c>
@@ -5046,7 +5041,7 @@
         <v>3204</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3">
       <c r="A290" s="1">
         <v>42542.569444444453</v>
       </c>
@@ -5057,9 +5052,9 @@
         <v>3264</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3">
       <c r="A291" s="1">
-        <v>41637.754166666673</v>
+        <v>41637.75416666668</v>
       </c>
       <c r="B291" t="s">
         <v>292</v>
@@ -5068,7 +5063,7 @@
         <v>3438</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3">
       <c r="A292" s="1">
         <v>42238.847222222219</v>
       </c>
@@ -5079,7 +5074,7 @@
         <v>3438</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3">
       <c r="A293" s="1">
         <v>42465.605555555558</v>
       </c>
@@ -5090,7 +5085,7 @@
         <v>3438</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3">
       <c r="A294" s="1">
         <v>41632.618055555547</v>
       </c>
@@ -5101,7 +5096,7 @@
         <v>3531</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3">
       <c r="A295" s="1">
         <v>41729.445138888892</v>
       </c>
@@ -5112,7 +5107,7 @@
         <v>3549</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3">
       <c r="A296" s="1">
         <v>42451.51666666667</v>
       </c>
@@ -5123,7 +5118,7 @@
         <v>3588</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3">
       <c r="A297" s="1">
         <v>41556.709722222222</v>
       </c>
@@ -5134,7 +5129,7 @@
         <v>3594</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3">
       <c r="A298" s="1">
         <v>42515.662499999999</v>
       </c>
@@ -5145,7 +5140,7 @@
         <v>3603</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3">
       <c r="A299" s="1">
         <v>42330.82916666667</v>
       </c>
@@ -5156,7 +5151,7 @@
         <v>3618</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3">
       <c r="A300" s="1">
         <v>41736.869444444441</v>
       </c>
@@ -5167,7 +5162,7 @@
         <v>3702</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3">
       <c r="A301" s="1">
         <v>41674.454861111109</v>
       </c>
@@ -5178,7 +5173,7 @@
         <v>3705</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3">
       <c r="A302" s="1">
         <v>42339.67291666667</v>
       </c>
@@ -5189,7 +5184,7 @@
         <v>3723</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3">
       <c r="A303" s="1">
         <v>42542.761805555558</v>
       </c>
@@ -5200,7 +5195,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3">
       <c r="A304" s="1">
         <v>41932.651388888888</v>
       </c>
@@ -5211,9 +5206,9 @@
         <v>3771</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3">
       <c r="A305" s="1">
-        <v>41745.419444444437</v>
+        <v>41745.419444444429</v>
       </c>
       <c r="B305" t="s">
         <v>306</v>
@@ -5222,7 +5217,7 @@
         <v>3798</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3">
       <c r="A306" s="1">
         <v>41578.637499999997</v>
       </c>
@@ -5233,7 +5228,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3">
       <c r="A307" s="1">
         <v>42484.563194444447</v>
       </c>
@@ -5244,7 +5239,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3">
       <c r="A308" s="1">
         <v>42296.467361111107</v>
       </c>
@@ -5255,7 +5250,7 @@
         <v>3855</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3">
       <c r="A309" s="1">
         <v>41709.581250000003</v>
       </c>
@@ -5266,9 +5261,9 @@
         <v>3882</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3">
       <c r="A310" s="1">
-        <v>41953.481944444437</v>
+        <v>41953.481944444429</v>
       </c>
       <c r="B310" t="s">
         <v>311</v>
@@ -5277,7 +5272,7 @@
         <v>3966</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3">
       <c r="A311" s="1">
         <v>42218.693749999999</v>
       </c>
@@ -5288,7 +5283,7 @@
         <v>3972</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3">
       <c r="A312" s="1">
         <v>41850.402777777781</v>
       </c>
@@ -5299,7 +5294,7 @@
         <v>4071</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3">
       <c r="A313" s="1">
         <v>41717.40625</v>
       </c>
@@ -5310,9 +5305,9 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3">
       <c r="A314" s="1">
-        <v>41680.549305555563</v>
+        <v>41680.549305555571</v>
       </c>
       <c r="B314" t="s">
         <v>315</v>
@@ -5321,7 +5316,7 @@
         <v>4146</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3">
       <c r="A315" s="1">
         <v>42226.462500000001</v>
       </c>
@@ -5332,7 +5327,7 @@
         <v>4191</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3">
       <c r="A316" s="1">
         <v>42329.95416666667</v>
       </c>
@@ -5343,7 +5338,7 @@
         <v>4218</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3">
       <c r="A317" s="1">
         <v>42132.505555555559</v>
       </c>
@@ -5354,7 +5349,7 @@
         <v>4296</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3">
       <c r="A318" s="1">
         <v>42300.770138888889</v>
       </c>
@@ -5365,7 +5360,7 @@
         <v>4323</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3">
       <c r="A319" s="1">
         <v>41711.42083333333</v>
       </c>
@@ -5376,7 +5371,7 @@
         <v>4332</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3">
       <c r="A320" s="1">
         <v>42009.452777777777</v>
       </c>
@@ -5387,7 +5382,7 @@
         <v>4413</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3">
       <c r="A321" s="1">
         <v>41829.743750000001</v>
       </c>
@@ -5398,7 +5393,7 @@
         <v>4425</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3">
       <c r="A322" s="1">
         <v>42054.622916666667</v>
       </c>
@@ -5409,7 +5404,7 @@
         <v>4446</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3">
       <c r="A323" s="1">
         <v>41531.642361111109</v>
       </c>
@@ -5420,7 +5415,7 @@
         <v>4482</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3">
       <c r="A324" s="1">
         <v>42363.573611111111</v>
       </c>
@@ -5431,7 +5426,7 @@
         <v>4578</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3">
       <c r="A325" s="1">
         <v>41674.574305555558</v>
       </c>
@@ -5442,7 +5437,7 @@
         <v>4719</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3">
       <c r="A326" s="1">
         <v>42205.459027777782</v>
       </c>
@@ -5453,7 +5448,7 @@
         <v>4782</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3">
       <c r="A327" s="1">
         <v>41765.011805555558</v>
       </c>
@@ -5464,7 +5459,7 @@
         <v>4827</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3">
       <c r="A328" s="1">
         <v>41788.654861111107</v>
       </c>
@@ -5475,7 +5470,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3">
       <c r="A329" s="1">
         <v>42286.82708333333</v>
       </c>
@@ -5486,7 +5481,7 @@
         <v>4920</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3">
       <c r="A330" s="1">
         <v>42160.034722222219</v>
       </c>
@@ -5497,7 +5492,7 @@
         <v>4923</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3">
       <c r="A331" s="1">
         <v>42359.430555555547</v>
       </c>
@@ -5508,7 +5503,7 @@
         <v>5067</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3">
       <c r="A332" s="1">
         <v>41660.5</v>
       </c>
@@ -5519,7 +5514,7 @@
         <v>5109</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3">
       <c r="A333" s="1">
         <v>41660.628472222219</v>
       </c>
@@ -5530,7 +5525,7 @@
         <v>5154</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3">
       <c r="A334" s="1">
         <v>41848.747916666667</v>
       </c>
@@ -5541,7 +5536,7 @@
         <v>5184</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3">
       <c r="A335" s="1">
         <v>42408.65902777778</v>
       </c>
@@ -5552,7 +5547,7 @@
         <v>5232</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3">
       <c r="A336" s="1">
         <v>42366.616666666669</v>
       </c>
@@ -5563,7 +5558,7 @@
         <v>5265</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3">
       <c r="A337" s="1">
         <v>42554.726388888892</v>
       </c>
@@ -5574,7 +5569,7 @@
         <v>5283</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3">
       <c r="A338" s="1">
         <v>42355.273611111108</v>
       </c>
@@ -5585,7 +5580,7 @@
         <v>5286</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3">
       <c r="A339" s="1">
         <v>42226.54583333333</v>
       </c>
@@ -5596,7 +5591,7 @@
         <v>5304</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3">
       <c r="A340" s="1">
         <v>41862.595833333333</v>
       </c>
@@ -5607,7 +5602,7 @@
         <v>5343</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3">
       <c r="A341" s="1">
         <v>41715.431250000001</v>
       </c>
@@ -5618,7 +5613,7 @@
         <v>5358</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3">
       <c r="A342" s="1">
         <v>42323.396527777782</v>
       </c>
@@ -5629,7 +5624,7 @@
         <v>5364</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3">
       <c r="A343" s="1">
         <v>41749.416666666657</v>
       </c>
@@ -5640,9 +5635,9 @@
         <v>5382</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3">
       <c r="A344" s="1">
-        <v>42226.402083333327</v>
+        <v>42226.40208333332</v>
       </c>
       <c r="B344" t="s">
         <v>345</v>
@@ -5651,7 +5646,7 @@
         <v>5415</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3">
       <c r="A345" s="1">
         <v>41911.494444444441</v>
       </c>
@@ -5662,7 +5657,7 @@
         <v>5421</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3">
       <c r="A346" s="1">
         <v>42332.565972222219</v>
       </c>
@@ -5673,7 +5668,7 @@
         <v>5463</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3">
       <c r="A347" s="1">
         <v>42465.652777777781</v>
       </c>
@@ -5684,7 +5679,7 @@
         <v>5685</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3">
       <c r="A348" s="1">
         <v>41767.572916666657</v>
       </c>
@@ -5695,7 +5690,7 @@
         <v>5796</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3">
       <c r="A349" s="1">
         <v>42322.847222222219</v>
       </c>
@@ -5706,9 +5701,9 @@
         <v>5874</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3">
       <c r="A350" s="1">
-        <v>41871.441666666673</v>
+        <v>41871.44166666668</v>
       </c>
       <c r="B350" t="s">
         <v>351</v>
@@ -5717,7 +5712,7 @@
         <v>5976</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3">
       <c r="A351" s="1">
         <v>41666.418055555558</v>
       </c>
@@ -5728,7 +5723,7 @@
         <v>6042</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3">
       <c r="A352" s="1">
         <v>41757.525000000001</v>
       </c>
@@ -5739,7 +5734,7 @@
         <v>6105</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3">
       <c r="A353" s="1">
         <v>41674.592361111107</v>
       </c>
@@ -5750,7 +5745,7 @@
         <v>6171</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3">
       <c r="A354" s="1">
         <v>41556.709027777782</v>
       </c>
@@ -5761,7 +5756,7 @@
         <v>6426</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3">
       <c r="A355" s="1">
         <v>41658.550000000003</v>
       </c>
@@ -5772,7 +5767,7 @@
         <v>6504</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3">
       <c r="A356" s="1">
         <v>42303.461805555547</v>
       </c>
@@ -5783,7 +5778,7 @@
         <v>6585</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3">
       <c r="A357" s="1">
         <v>42387.60833333333</v>
       </c>
@@ -5794,7 +5789,7 @@
         <v>6819</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3">
       <c r="A358" s="1">
         <v>41681.533333333333</v>
       </c>
@@ -5805,7 +5800,7 @@
         <v>6855</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3">
       <c r="A359" s="1">
         <v>41681.62777777778</v>
       </c>
@@ -5816,9 +5811,9 @@
         <v>6891</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3">
       <c r="A360" s="1">
-        <v>41659.763194444437</v>
+        <v>41659.763194444429</v>
       </c>
       <c r="B360" t="s">
         <v>361</v>
@@ -5827,7 +5822,7 @@
         <v>6972</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3">
       <c r="A361" s="1">
         <v>42329.572916666657</v>
       </c>
@@ -5838,7 +5833,7 @@
         <v>7116</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3">
       <c r="A362" s="1">
         <v>42230.934027777781</v>
       </c>
@@ -5849,7 +5844,7 @@
         <v>7149</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3">
       <c r="A363" s="1">
         <v>42114.406944444447</v>
       </c>
@@ -5860,7 +5855,7 @@
         <v>7227</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3">
       <c r="A364" s="1">
         <v>41738.583333333343</v>
       </c>
@@ -5871,7 +5866,7 @@
         <v>7335</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3">
       <c r="A365" s="1">
         <v>41479.59652777778</v>
       </c>
@@ -5882,7 +5877,7 @@
         <v>7416</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3">
       <c r="A366" s="1">
         <v>42308.673611111109</v>
       </c>
@@ -5893,9 +5888,9 @@
         <v>7473</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3">
       <c r="A367" s="1">
-        <v>41864.410416666673</v>
+        <v>41864.41041666668</v>
       </c>
       <c r="B367" t="s">
         <v>368</v>
@@ -5904,7 +5899,7 @@
         <v>7488</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3">
       <c r="A368" s="1">
         <v>41674.593055555553</v>
       </c>
@@ -5915,7 +5910,7 @@
         <v>7491</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3">
       <c r="A369" s="1">
         <v>41756.780555555553</v>
       </c>
@@ -5926,7 +5921,7 @@
         <v>7506</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3">
       <c r="A370" s="1">
         <v>42235.678472222222</v>
       </c>
@@ -5937,7 +5932,7 @@
         <v>7767</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3">
       <c r="A371" s="1">
         <v>42319.573611111111</v>
       </c>
@@ -5948,7 +5943,7 @@
         <v>7893</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3">
       <c r="A372" s="1">
         <v>42031.734027777777</v>
       </c>
@@ -5959,7 +5954,7 @@
         <v>8076</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3">
       <c r="A373" s="1">
         <v>41556.709027777782</v>
       </c>
@@ -5970,9 +5965,9 @@
         <v>8163</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3">
       <c r="A374" s="1">
-        <v>41758.433333333327</v>
+        <v>41758.43333333332</v>
       </c>
       <c r="B374" t="s">
         <v>375</v>
@@ -5981,7 +5976,7 @@
         <v>8205</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3">
       <c r="A375" s="1">
         <v>41847.474305555559</v>
       </c>
@@ -5992,7 +5987,7 @@
         <v>8280</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3">
       <c r="A376" s="1">
         <v>42245.542361111111</v>
       </c>
@@ -6003,7 +5998,7 @@
         <v>8415</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3">
       <c r="A377" s="1">
         <v>42204.711805555547</v>
       </c>
@@ -6014,7 +6009,7 @@
         <v>8421</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3">
       <c r="A378" s="1">
         <v>41669.438194444447</v>
       </c>
@@ -6025,7 +6020,7 @@
         <v>8433</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3">
       <c r="A379" s="1">
         <v>42435.698611111111</v>
       </c>
@@ -6036,7 +6031,7 @@
         <v>8442</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3">
       <c r="A380" s="1">
         <v>42286.813194444447</v>
       </c>
@@ -6047,7 +6042,7 @@
         <v>8628</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3">
       <c r="A381" s="1">
         <v>42286.717361111107</v>
       </c>
@@ -6058,7 +6053,7 @@
         <v>8649</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3">
       <c r="A382" s="1">
         <v>42217.961111111108</v>
       </c>
@@ -6069,7 +6064,7 @@
         <v>8712</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3">
       <c r="A383" s="1">
         <v>42428.662499999999</v>
       </c>
@@ -6080,7 +6075,7 @@
         <v>8712</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3">
       <c r="A384" s="1">
         <v>42343.720833333333</v>
       </c>
@@ -6091,9 +6086,9 @@
         <v>8715</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3">
       <c r="A385" s="1">
-        <v>41729.441666666673</v>
+        <v>41729.44166666668</v>
       </c>
       <c r="B385" t="s">
         <v>386</v>
@@ -6102,9 +6097,9 @@
         <v>8790</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3">
       <c r="A386" s="1">
-        <v>41675.455555555563</v>
+        <v>41675.455555555571</v>
       </c>
       <c r="B386" t="s">
         <v>387</v>
@@ -6113,7 +6108,7 @@
         <v>8838</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3">
       <c r="A387" s="1">
         <v>42438.658333333333</v>
       </c>
@@ -6124,7 +6119,7 @@
         <v>9018</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3">
       <c r="A388" s="1">
         <v>42186.647916666669</v>
       </c>
@@ -6135,7 +6130,7 @@
         <v>9078</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3">
       <c r="A389" s="1">
         <v>42343.406944444447</v>
       </c>
@@ -6146,7 +6141,7 @@
         <v>9249</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3">
       <c r="A390" s="1">
         <v>41692.54791666667</v>
       </c>
@@ -6157,7 +6152,7 @@
         <v>9513</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3">
       <c r="A391" s="1">
         <v>42247.398611111108</v>
       </c>
@@ -6168,7 +6163,7 @@
         <v>10233</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3">
       <c r="A392" s="1">
         <v>42024.573611111111</v>
       </c>
@@ -6179,7 +6174,7 @@
         <v>10461</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3">
       <c r="A393" s="1">
         <v>41710.71597222222</v>
       </c>
@@ -6190,7 +6185,7 @@
         <v>10470</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3">
       <c r="A394" s="1">
         <v>41746.290972222218</v>
       </c>
@@ -6201,7 +6196,7 @@
         <v>10701</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3">
       <c r="A395" s="1">
         <v>42224.451388888891</v>
       </c>
@@ -6212,7 +6207,7 @@
         <v>10863</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3">
       <c r="A396" s="1">
         <v>42325.663888888892</v>
       </c>
@@ -6223,7 +6218,7 @@
         <v>10896</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3">
       <c r="A397" s="1">
         <v>41609.457638888889</v>
       </c>
@@ -6234,7 +6229,7 @@
         <v>11469</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3">
       <c r="A398" s="1">
         <v>42171.48541666667</v>
       </c>
@@ -6245,7 +6240,7 @@
         <v>11895</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3">
       <c r="A399" s="1">
         <v>42288.385416666657</v>
       </c>
@@ -6256,9 +6251,9 @@
         <v>11904</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3">
       <c r="A400" s="1">
-        <v>41588.669444444437</v>
+        <v>41588.669444444429</v>
       </c>
       <c r="B400" t="s">
         <v>401</v>
@@ -6267,7 +6262,7 @@
         <v>12117</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3">
       <c r="A401" s="1">
         <v>41674.473611111112</v>
       </c>
@@ -6278,9 +6273,9 @@
         <v>12324</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3">
       <c r="A402" s="1">
-        <v>41760.879166666673</v>
+        <v>41760.87916666668</v>
       </c>
       <c r="B402" t="s">
         <v>403</v>
@@ -6289,7 +6284,7 @@
         <v>12705</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3">
       <c r="A403" s="1">
         <v>41577.557638888888</v>
       </c>
@@ -6300,7 +6295,7 @@
         <v>12750</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3">
       <c r="A404" s="1">
         <v>42029.470833333333</v>
       </c>
@@ -6311,7 +6306,7 @@
         <v>13023</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3">
       <c r="A405" s="1">
         <v>41658.585416666669</v>
       </c>
@@ -6322,7 +6317,7 @@
         <v>13065</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3">
       <c r="A406" s="1">
         <v>42441.892361111109</v>
       </c>
@@ -6333,7 +6328,7 @@
         <v>13116</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3">
       <c r="A407" s="1">
         <v>41673.404861111107</v>
       </c>
@@ -6344,7 +6339,7 @@
         <v>13398</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3">
       <c r="A408" s="1">
         <v>41632.612500000003</v>
       </c>
@@ -6355,7 +6350,7 @@
         <v>13584</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3">
       <c r="A409" s="1">
         <v>42323.775694444441</v>
       </c>
@@ -6366,7 +6361,7 @@
         <v>13599</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3">
       <c r="A410" s="1">
         <v>41623.727777777778</v>
       </c>
@@ -6377,7 +6372,7 @@
         <v>13650</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3">
       <c r="A411" s="1">
         <v>42216.893750000003</v>
       </c>
@@ -6388,7 +6383,7 @@
         <v>13878</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3">
       <c r="A412" s="1">
         <v>41584.574305555558</v>
       </c>
@@ -6399,7 +6394,7 @@
         <v>13911</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3">
       <c r="A413" s="1">
         <v>41890.429166666669</v>
       </c>
@@ -6410,7 +6405,7 @@
         <v>13953</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3">
       <c r="A414" s="1">
         <v>41772.614583333343</v>
       </c>
@@ -6421,7 +6416,7 @@
         <v>14127</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3">
       <c r="A415" s="1">
         <v>41632.613888888889</v>
       </c>
@@ -6432,7 +6427,7 @@
         <v>14166</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3">
       <c r="A416" s="1">
         <v>41835.623611111107</v>
       </c>
@@ -6443,7 +6438,7 @@
         <v>14352</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3">
       <c r="A417" s="1">
         <v>41556.708333333343</v>
       </c>
@@ -6454,7 +6449,7 @@
         <v>14493</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3">
       <c r="A418" s="1">
         <v>42432.654166666667</v>
       </c>
@@ -6465,7 +6460,7 @@
         <v>14541</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3">
       <c r="A419" s="1">
         <v>42323.430555555547</v>
       </c>
@@ -6476,7 +6471,7 @@
         <v>14850</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3">
       <c r="A420" s="1">
         <v>42238.504861111112</v>
       </c>
@@ -6487,7 +6482,7 @@
         <v>15171</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3">
       <c r="A421" s="1">
         <v>42351.438194444447</v>
       </c>
@@ -6498,7 +6493,7 @@
         <v>15246</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3">
       <c r="A422" s="1">
         <v>41632.689583333333</v>
       </c>
@@ -6509,7 +6504,7 @@
         <v>15402</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3">
       <c r="A423" s="1">
         <v>42265.842361111107</v>
       </c>
@@ -6520,7 +6515,7 @@
         <v>15540</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3">
       <c r="A424" s="1">
         <v>41677.616666666669</v>
       </c>
@@ -6531,7 +6526,7 @@
         <v>15555</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3">
       <c r="A425" s="1">
         <v>41533.439583333333</v>
       </c>
@@ -6542,7 +6537,7 @@
         <v>15648</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3">
       <c r="A426" s="1">
         <v>42252.421527777777</v>
       </c>
@@ -6553,7 +6548,7 @@
         <v>15801</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3">
       <c r="A427" s="1">
         <v>41632.609027777777</v>
       </c>
@@ -6564,7 +6559,7 @@
         <v>15828</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3">
       <c r="A428" s="1">
         <v>42255.619444444441</v>
       </c>
@@ -6575,7 +6570,7 @@
         <v>15831</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3">
       <c r="A429" s="1">
         <v>41834.702777777777</v>
       </c>
@@ -6586,7 +6581,7 @@
         <v>16515</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3">
       <c r="A430" s="1">
         <v>41556.707638888889</v>
       </c>
@@ -6597,7 +6592,7 @@
         <v>16869</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3">
       <c r="A431" s="1">
         <v>41631.472222222219</v>
       </c>
@@ -6608,7 +6603,7 @@
         <v>17337</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3">
       <c r="A432" s="1">
         <v>42162.688194444447</v>
       </c>
@@ -6619,7 +6614,7 @@
         <v>17961</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3">
       <c r="A433" s="1">
         <v>41584.543055555558</v>
       </c>
@@ -6630,7 +6625,7 @@
         <v>18540</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3">
       <c r="A434" s="1">
         <v>41718.759722222218</v>
       </c>
@@ -6641,7 +6636,7 @@
         <v>18588</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3">
       <c r="A435" s="1">
         <v>42203.560416666667</v>
       </c>
@@ -6652,7 +6647,7 @@
         <v>18669</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3">
       <c r="A436" s="1">
         <v>41556.708333333343</v>
       </c>
@@ -6663,7 +6658,7 @@
         <v>19050</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3">
       <c r="A437" s="1">
         <v>41632.688888888893</v>
       </c>
@@ -6674,7 +6669,7 @@
         <v>19110</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3">
       <c r="A438" s="1">
         <v>41632.612500000003</v>
       </c>
@@ -6685,7 +6680,7 @@
         <v>19191</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3">
       <c r="A439" s="1">
         <v>41632.651388888888</v>
       </c>
@@ -6696,7 +6691,7 @@
         <v>19761</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3">
       <c r="A440" s="1">
         <v>41722.444444444453</v>
       </c>
@@ -6707,7 +6702,7 @@
         <v>19824</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3">
       <c r="A441" s="1">
         <v>41632.605555555558</v>
       </c>
@@ -6718,7 +6713,7 @@
         <v>20616</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3">
       <c r="A442" s="1">
         <v>42008.382638888892</v>
       </c>
@@ -6729,9 +6724,9 @@
         <v>20991</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3">
       <c r="A443" s="1">
-        <v>41861.472916666673</v>
+        <v>41861.47291666668</v>
       </c>
       <c r="B443" t="s">
         <v>444</v>
@@ -6740,7 +6735,7 @@
         <v>21363</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3">
       <c r="A444" s="1">
         <v>42290.720138888893</v>
       </c>
@@ -6751,7 +6746,7 @@
         <v>21558</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3">
       <c r="A445" s="1">
         <v>41556.682638888888</v>
       </c>
@@ -6762,7 +6757,7 @@
         <v>22245</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3">
       <c r="A446" s="1">
         <v>41681.684027777781</v>
       </c>
@@ -6773,7 +6768,7 @@
         <v>22332</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3">
       <c r="A447" s="1">
         <v>41681.613888888889</v>
       </c>
@@ -6784,7 +6779,7 @@
         <v>22437</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3">
       <c r="A448" s="1">
         <v>41477.59375</v>
       </c>
@@ -6795,9 +6790,9 @@
         <v>22596</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3">
       <c r="A449" s="1">
-        <v>41574.580555555563</v>
+        <v>41574.580555555571</v>
       </c>
       <c r="B449" t="s">
         <v>450</v>
@@ -6806,7 +6801,7 @@
         <v>22755</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3">
       <c r="A450" s="1">
         <v>42010.472222222219</v>
       </c>
@@ -6817,7 +6812,7 @@
         <v>22860</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3">
       <c r="A451" s="1">
         <v>42155.502083333333</v>
       </c>
@@ -6828,7 +6823,7 @@
         <v>24180</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3">
       <c r="A452" s="1">
         <v>41583.759027777778</v>
       </c>
@@ -6839,7 +6834,7 @@
         <v>24375</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3">
       <c r="A453" s="1">
         <v>41632.689583333333</v>
       </c>
@@ -6850,7 +6845,7 @@
         <v>24645</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3">
       <c r="A454" s="1">
         <v>41478.738888888889</v>
       </c>
@@ -6861,7 +6856,7 @@
         <v>25002</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3">
       <c r="A455" s="1">
         <v>41585.798611111109</v>
       </c>
@@ -6872,7 +6867,7 @@
         <v>25389</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3">
       <c r="A456" s="1">
         <v>41673.461805555547</v>
       </c>
@@ -6883,7 +6878,7 @@
         <v>25512</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3">
       <c r="A457" s="1">
         <v>41613.563194444447</v>
       </c>
@@ -6894,7 +6889,7 @@
         <v>26919</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3">
       <c r="A458" s="1">
         <v>41724.90902777778</v>
       </c>
@@ -6905,7 +6900,7 @@
         <v>26940</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3">
       <c r="A459" s="1">
         <v>41816.401388888888</v>
       </c>
@@ -6916,7 +6911,7 @@
         <v>28071</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3">
       <c r="A460" s="1">
         <v>42027.479861111111</v>
       </c>
@@ -6927,7 +6922,7 @@
         <v>30393</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3">
       <c r="A461" s="1">
         <v>41835.631944444453</v>
       </c>
@@ -6938,7 +6933,7 @@
         <v>30495</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3">
       <c r="A462" s="1">
         <v>41632.615277777782</v>
       </c>
@@ -6949,7 +6944,7 @@
         <v>31437</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3">
       <c r="A463" s="1">
         <v>41652.625</v>
       </c>
@@ -6960,7 +6955,7 @@
         <v>31476</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3">
       <c r="A464" s="1">
         <v>41531.644444444442</v>
       </c>
@@ -6971,7 +6966,7 @@
         <v>31920</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3">
       <c r="A465" s="1">
         <v>42211.51458333333</v>
       </c>
@@ -6982,7 +6977,7 @@
         <v>33093</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3">
       <c r="A466" s="1">
         <v>42219.576388888891</v>
       </c>
@@ -6993,7 +6988,7 @@
         <v>33348</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3">
       <c r="A467" s="1">
         <v>41531.64166666667</v>
       </c>
@@ -7004,7 +6999,7 @@
         <v>36387</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3">
       <c r="A468" s="1">
         <v>41603.411111111112</v>
       </c>
@@ -7015,7 +7010,7 @@
         <v>36756</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3">
       <c r="A469" s="1">
         <v>41531.64166666667</v>
       </c>
@@ -7026,9 +7021,9 @@
         <v>39177</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3">
       <c r="A470" s="1">
-        <v>42218.638194444437</v>
+        <v>42218.638194444429</v>
       </c>
       <c r="B470" t="s">
         <v>471</v>
@@ -7037,9 +7032,9 @@
         <v>39972</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3">
       <c r="A471" s="1">
-        <v>41574.558333333327</v>
+        <v>41574.55833333332</v>
       </c>
       <c r="B471" t="s">
         <v>472</v>
@@ -7048,7 +7043,7 @@
         <v>43068</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3">
       <c r="A472" s="1">
         <v>42238.398611111108</v>
       </c>
@@ -7059,7 +7054,7 @@
         <v>51150</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3">
       <c r="A473" s="1">
         <v>41407.456944444442</v>
       </c>
@@ -7070,7 +7065,7 @@
         <v>51879</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:3">
       <c r="A474" s="1">
         <v>41632.614583333343</v>
       </c>
@@ -7081,7 +7076,7 @@
         <v>58215</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3">
       <c r="A475" s="1">
         <v>41531.640972222223</v>
       </c>
@@ -7092,7 +7087,7 @@
         <v>63981</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:3">
       <c r="A476" s="1">
         <v>41837.404861111107</v>
       </c>
@@ -7103,7 +7098,7 @@
         <v>71685</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3">
       <c r="A477" s="1">
         <v>41407.462500000001</v>
       </c>
@@ -7114,7 +7109,7 @@
         <v>78792</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:3">
       <c r="A478" s="1">
         <v>41516.609027777777</v>
       </c>
@@ -7125,7 +7120,7 @@
         <v>79074</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3">
       <c r="A479" s="1">
         <v>41592.786805555559</v>
       </c>
@@ -7136,7 +7131,7 @@
         <v>85434</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3">
       <c r="A480" s="1">
         <v>41407.457638888889</v>
       </c>
@@ -7147,7 +7142,7 @@
         <v>93153</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3">
       <c r="A481" s="1">
         <v>41702.413194444453</v>
       </c>
@@ -7158,7 +7153,7 @@
         <v>100155</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3">
       <c r="A482" s="1">
         <v>41837.737500000003</v>
       </c>
@@ -7169,7 +7164,7 @@
         <v>106950</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3">
       <c r="A483" s="1">
         <v>41407.456944444442</v>
       </c>
@@ -7180,7 +7175,7 @@
         <v>118629</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3">
       <c r="A484" s="1">
         <v>41407.454861111109</v>
       </c>
@@ -7191,7 +7186,7 @@
         <v>391962</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3">
       <c r="A485" s="1">
         <v>41597.772222222222</v>
       </c>
@@ -7203,9 +7198,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C485">
-    <sortCondition ref="C1"/>
-  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7215,18 +7207,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C485"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="45.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7237,7 +7229,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>42561.39166666667</v>
       </c>
@@ -7248,7 +7240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>42061.772916666669</v>
       </c>
@@ -7259,9 +7251,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>42023.652083333327</v>
+        <v>42023.65208333332</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -7270,7 +7262,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>42084.005555555559</v>
       </c>
@@ -7281,7 +7273,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>42584.406944444447</v>
       </c>
@@ -7292,7 +7284,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>41842.603472222218</v>
       </c>
@@ -7303,7 +7295,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>41850.556250000001</v>
       </c>
@@ -7314,7 +7306,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>41850.563888888893</v>
       </c>
@@ -7325,7 +7317,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>42068.430555555547</v>
       </c>
@@ -7336,7 +7328,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>42580.431944444441</v>
       </c>
@@ -7347,7 +7339,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>42486.459027777782</v>
       </c>
@@ -7358,7 +7350,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>42207.725694444453</v>
       </c>
@@ -7369,7 +7361,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>42247.417361111111</v>
       </c>
@@ -7380,7 +7372,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>42087.572916666657</v>
       </c>
@@ -7391,7 +7383,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>42576.643750000003</v>
       </c>
@@ -7402,7 +7394,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>42077.394444444442</v>
       </c>
@@ -7413,7 +7405,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>42562.470833333333</v>
       </c>
@@ -7424,7 +7416,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>41729.684027777781</v>
       </c>
@@ -7435,7 +7427,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>41624.92083333333</v>
       </c>
@@ -7446,9 +7438,9 @@
         <v>774</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>42233.379166666673</v>
+        <v>42233.37916666668</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
@@ -7457,7 +7449,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>41851.651388888888</v>
       </c>
@@ -7468,7 +7460,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>42527.392361111109</v>
       </c>
@@ -7479,7 +7471,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>41850.556944444441</v>
       </c>
@@ -7490,7 +7482,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>42260.452777777777</v>
       </c>
@@ -7501,7 +7493,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>42228.525694444441</v>
       </c>
@@ -7512,7 +7504,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>42540.696527777778</v>
       </c>
@@ -7523,7 +7515,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>41599.822222222218</v>
       </c>
@@ -7534,7 +7526,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>42596.720833333333</v>
       </c>
@@ -7545,7 +7537,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>42583.457638888889</v>
       </c>
@@ -7556,7 +7548,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>42080.675694444442</v>
       </c>
@@ -7567,7 +7559,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>42428.665277777778</v>
       </c>
@@ -7578,7 +7570,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>42065.429861111108</v>
       </c>
@@ -7589,7 +7581,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>42569.420138888891</v>
       </c>
@@ -7600,7 +7592,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>42578.554861111108</v>
       </c>
@@ -7611,7 +7603,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>41836.409722222219</v>
       </c>
@@ -7622,7 +7614,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>42315.47152777778</v>
       </c>
@@ -7633,7 +7625,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>42205.741666666669</v>
       </c>
@@ -7644,7 +7636,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>41679.749305555553</v>
       </c>
@@ -7655,7 +7647,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>42563.57708333333</v>
       </c>
@@ -7666,7 +7658,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>41842.478472222218</v>
       </c>
@@ -7677,7 +7669,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>42235.749305555553</v>
       </c>
@@ -7688,7 +7680,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>41611.767361111109</v>
       </c>
@@ -7699,7 +7691,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>41700.730555555558</v>
       </c>
@@ -7710,9 +7702,9 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>42535.745833333327</v>
+        <v>42535.74583333332</v>
       </c>
       <c r="B45" t="s">
         <v>83</v>
@@ -7721,7 +7713,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>41842.380555555559</v>
       </c>
@@ -7732,7 +7724,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>41850.56527777778</v>
       </c>
@@ -7743,7 +7735,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>42499.680555555547</v>
       </c>
@@ -7754,7 +7746,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>42076.60833333333</v>
       </c>
@@ -7765,7 +7757,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>41868.45208333333</v>
       </c>
@@ -7776,9 +7768,9 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>41767.660416666673</v>
+        <v>41767.66041666668</v>
       </c>
       <c r="B51" t="s">
         <v>31</v>
@@ -7787,7 +7779,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>42537.449305555558</v>
       </c>
@@ -7798,7 +7790,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>42339.692361111112</v>
       </c>
@@ -7809,7 +7801,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>42259.422222222223</v>
       </c>
@@ -7820,7 +7812,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>42269.682638888888</v>
       </c>
@@ -7831,7 +7823,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>42526.442361111112</v>
       </c>
@@ -7842,7 +7834,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>42554.613888888889</v>
       </c>
@@ -7853,7 +7845,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>42563.729861111111</v>
       </c>
@@ -7864,7 +7856,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>42449.713888888888</v>
       </c>
@@ -7875,9 +7867,9 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>42086.606944444437</v>
+        <v>42086.606944444429</v>
       </c>
       <c r="B60" t="s">
         <v>103</v>
@@ -7886,7 +7878,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>42245.490277777782</v>
       </c>
@@ -7897,7 +7889,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>42562.618750000001</v>
       </c>
@@ -7908,7 +7900,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>41737.436805555553</v>
       </c>
@@ -7919,7 +7911,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>42214.636805555558</v>
       </c>
@@ -7930,7 +7922,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>42569.738194444442</v>
       </c>
@@ -7941,7 +7933,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>42577.677083333343</v>
       </c>
@@ -7952,7 +7944,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>42221.422222222223</v>
       </c>
@@ -7963,7 +7955,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>42253.405555555553</v>
       </c>
@@ -7974,7 +7966,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>42077.559027777781</v>
       </c>
@@ -7985,7 +7977,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>41739.615277777782</v>
       </c>
@@ -7996,7 +7988,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>42443.415277777778</v>
       </c>
@@ -8007,7 +7999,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>42582.459027777782</v>
       </c>
@@ -8018,9 +8010,9 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>42337.722916666673</v>
+        <v>42337.72291666668</v>
       </c>
       <c r="B73" t="s">
         <v>146</v>
@@ -8029,7 +8021,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>42066.570138888892</v>
       </c>
@@ -8040,7 +8032,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>41835.710416666669</v>
       </c>
@@ -8051,7 +8043,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>42501.603472222218</v>
       </c>
@@ -8062,7 +8054,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>42199.986111111109</v>
       </c>
@@ -8073,7 +8065,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>41743.747916666667</v>
       </c>
@@ -8084,7 +8076,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>42090.888888888891</v>
       </c>
@@ -8095,7 +8087,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>42227.529166666667</v>
       </c>
@@ -8106,7 +8098,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>41943.604166666657</v>
       </c>
@@ -8117,7 +8109,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>42259.436111111107</v>
       </c>
@@ -8128,9 +8120,9 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>42561.580555555563</v>
+        <v>42561.580555555571</v>
       </c>
       <c r="B83" t="s">
         <v>9</v>
@@ -8139,7 +8131,7 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>42207.522916666669</v>
       </c>
@@ -8150,7 +8142,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>42061.415277777778</v>
       </c>
@@ -8161,9 +8153,9 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>42535.566666666673</v>
+        <v>42535.56666666668</v>
       </c>
       <c r="B86" t="s">
         <v>129</v>
@@ -8172,9 +8164,9 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>42266.441666666673</v>
+        <v>42266.44166666668</v>
       </c>
       <c r="B87" t="s">
         <v>120</v>
@@ -8183,7 +8175,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>41623.68472222222</v>
       </c>
@@ -8194,7 +8186,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>42238.606249999997</v>
       </c>
@@ -8205,7 +8197,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>42577.447222222218</v>
       </c>
@@ -8216,7 +8208,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>41739.913888888892</v>
       </c>
@@ -8227,7 +8219,7 @@
         <v>2979</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>42245.688888888893</v>
       </c>
@@ -8238,7 +8230,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>42420.402777777781</v>
       </c>
@@ -8249,7 +8241,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>41611.504861111112</v>
       </c>
@@ -8260,9 +8252,9 @@
         <v>3015</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>42619.424305555563</v>
+        <v>42619.424305555571</v>
       </c>
       <c r="B95" t="s">
         <v>39</v>
@@ -8271,7 +8263,7 @@
         <v>3078</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>42311.475694444453</v>
       </c>
@@ -8282,9 +8274,9 @@
         <v>3087</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>42316.388194444437</v>
+        <v>42316.388194444429</v>
       </c>
       <c r="B97" t="s">
         <v>133</v>
@@ -8293,7 +8285,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>42224.353472222218</v>
       </c>
@@ -8304,9 +8296,9 @@
         <v>3201</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>42556.629166666673</v>
+        <v>42556.62916666668</v>
       </c>
       <c r="B99" t="s">
         <v>58</v>
@@ -8315,7 +8307,7 @@
         <v>3213</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>42534.552777777782</v>
       </c>
@@ -8326,9 +8318,9 @@
         <v>3285</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>42484.660416666673</v>
+        <v>42484.66041666668</v>
       </c>
       <c r="B101" t="s">
         <v>72</v>
@@ -8337,7 +8329,7 @@
         <v>3372</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" s="1">
         <v>41935.695833333331</v>
       </c>
@@ -8348,7 +8340,7 @@
         <v>3435</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" s="1">
         <v>42544.588194444441</v>
       </c>
@@ -8359,7 +8351,7 @@
         <v>3534</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" s="1">
         <v>42565.603472222218</v>
       </c>
@@ -8370,7 +8362,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" s="1">
         <v>41940.717361111107</v>
       </c>
@@ -8381,9 +8373,9 @@
         <v>3543</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>41949.410416666673</v>
+        <v>41949.41041666668</v>
       </c>
       <c r="B106" t="s">
         <v>59</v>
@@ -8392,7 +8384,7 @@
         <v>3543</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107" s="1">
         <v>42562.422222222223</v>
       </c>
@@ -8403,7 +8395,7 @@
         <v>3543</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108" s="1">
         <v>42495.938888888893</v>
       </c>
@@ -8414,7 +8406,7 @@
         <v>3546</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109" s="1">
         <v>41921.781944444447</v>
       </c>
@@ -8425,7 +8417,7 @@
         <v>3609</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110" s="1">
         <v>42311.692361111112</v>
       </c>
@@ -8436,9 +8428,9 @@
         <v>3618</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>41592.799305555563</v>
+        <v>41592.799305555571</v>
       </c>
       <c r="B111" t="s">
         <v>164</v>
@@ -8447,7 +8439,7 @@
         <v>3681</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112" s="1">
         <v>42556.570138888892</v>
       </c>
@@ -8458,7 +8450,7 @@
         <v>3708</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113" s="1">
         <v>42571.614583333343</v>
       </c>
@@ -8469,7 +8461,7 @@
         <v>3720</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114" s="1">
         <v>42193.667361111111</v>
       </c>
@@ -8480,7 +8472,7 @@
         <v>3729</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115" s="1">
         <v>42571.637499999997</v>
       </c>
@@ -8491,9 +8483,9 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>42554.464583333327</v>
+        <v>42554.46458333332</v>
       </c>
       <c r="B116" t="s">
         <v>108</v>
@@ -8502,7 +8494,7 @@
         <v>3771</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117" s="1">
         <v>41603.303472222222</v>
       </c>
@@ -8513,7 +8505,7 @@
         <v>3783</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118" s="1">
         <v>42571.479861111111</v>
       </c>
@@ -8524,7 +8516,7 @@
         <v>3873</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119" s="1">
         <v>42249.425694444442</v>
       </c>
@@ -8535,7 +8527,7 @@
         <v>3915</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120" s="1">
         <v>41935.698611111111</v>
       </c>
@@ -8546,9 +8538,9 @@
         <v>3978</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>41669.441666666673</v>
+        <v>41669.44166666668</v>
       </c>
       <c r="B121" t="s">
         <v>167</v>
@@ -8557,7 +8549,7 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122" s="1">
         <v>42260.382638888892</v>
       </c>
@@ -8568,7 +8560,7 @@
         <v>4056</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123" s="1">
         <v>42309.745138888888</v>
       </c>
@@ -8579,7 +8571,7 @@
         <v>4092</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124" s="1">
         <v>42259.438888888893</v>
       </c>
@@ -8590,7 +8582,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125" s="1">
         <v>42233.62222222222</v>
       </c>
@@ -8601,7 +8593,7 @@
         <v>4164</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126" s="1">
         <v>42436.730555555558</v>
       </c>
@@ -8612,7 +8604,7 @@
         <v>4176</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127" s="1">
         <v>41591.711805555547</v>
       </c>
@@ -8623,7 +8615,7 @@
         <v>4212</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128" s="1">
         <v>42568.428472222222</v>
       </c>
@@ -8634,7 +8626,7 @@
         <v>4236</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129" s="1">
         <v>42093.477083333331</v>
       </c>
@@ -8645,7 +8637,7 @@
         <v>4302</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130" s="1">
         <v>42033.695833333331</v>
       </c>
@@ -8656,7 +8648,7 @@
         <v>4344</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131" s="1">
         <v>42368.459027777782</v>
       </c>
@@ -8667,9 +8659,9 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>42433.870833333327</v>
+        <v>42433.87083333332</v>
       </c>
       <c r="B132" t="s">
         <v>166</v>
@@ -8678,7 +8670,7 @@
         <v>4416</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133" s="1">
         <v>42221.40902777778</v>
       </c>
@@ -8689,7 +8681,7 @@
         <v>4431</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134" s="1">
         <v>42072.682638888888</v>
       </c>
@@ -8700,7 +8692,7 @@
         <v>4479</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135" s="1">
         <v>42226.430555555547</v>
       </c>
@@ -8711,7 +8703,7 @@
         <v>4527</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136" s="1">
         <v>42551.420138888891</v>
       </c>
@@ -8722,7 +8714,7 @@
         <v>4533</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137" s="1">
         <v>41844.466666666667</v>
       </c>
@@ -8733,7 +8725,7 @@
         <v>4584</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138" s="1">
         <v>42493.622916666667</v>
       </c>
@@ -8744,7 +8736,7 @@
         <v>4701</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139" s="1">
         <v>42330.82916666667</v>
       </c>
@@ -8755,7 +8747,7 @@
         <v>4707</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140" s="1">
         <v>42405.420138888891</v>
       </c>
@@ -8766,7 +8758,7 @@
         <v>5115</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141" s="1">
         <v>42251.670138888891</v>
       </c>
@@ -8777,7 +8769,7 @@
         <v>5127</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3">
       <c r="A142" s="1">
         <v>42543.447222222218</v>
       </c>
@@ -8788,7 +8780,7 @@
         <v>5136</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3">
       <c r="A143" s="1">
         <v>42315.423611111109</v>
       </c>
@@ -8799,7 +8791,7 @@
         <v>5238</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3">
       <c r="A144" s="1">
         <v>42295.676388888889</v>
       </c>
@@ -8810,7 +8802,7 @@
         <v>5289</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145" s="1">
         <v>42449.645833333343</v>
       </c>
@@ -8821,7 +8813,7 @@
         <v>5322</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146" s="1">
         <v>42332.679166666669</v>
       </c>
@@ -8832,7 +8824,7 @@
         <v>5361</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147" s="1">
         <v>42534.547222222223</v>
       </c>
@@ -8843,7 +8835,7 @@
         <v>5364</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3">
       <c r="A148" s="1">
         <v>42322.563888888893</v>
       </c>
@@ -8854,7 +8846,7 @@
         <v>5403</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3">
       <c r="A149" s="1">
         <v>42266.572222222218</v>
       </c>
@@ -8865,7 +8857,7 @@
         <v>5415</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3">
       <c r="A150" s="1">
         <v>42226.462500000001</v>
       </c>
@@ -8876,7 +8868,7 @@
         <v>5430</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3">
       <c r="A151" s="1">
         <v>42290.736111111109</v>
       </c>
@@ -8887,7 +8879,7 @@
         <v>5445</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3">
       <c r="A152" s="1">
         <v>42541.470138888893</v>
       </c>
@@ -8898,7 +8890,7 @@
         <v>5445</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3">
       <c r="A153" s="1">
         <v>42366.771527777782</v>
       </c>
@@ -8909,7 +8901,7 @@
         <v>5451</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3">
       <c r="A154" s="1">
         <v>42549.452777777777</v>
       </c>
@@ -8920,7 +8912,7 @@
         <v>5484</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3">
       <c r="A155" s="1">
         <v>42235.411805555559</v>
       </c>
@@ -8931,7 +8923,7 @@
         <v>5502</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3">
       <c r="A156" s="1">
         <v>42217.900694444441</v>
       </c>
@@ -8942,7 +8934,7 @@
         <v>5547</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3">
       <c r="A157" s="1">
         <v>42555.744444444441</v>
       </c>
@@ -8953,7 +8945,7 @@
         <v>5559</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3">
       <c r="A158" s="1">
         <v>41709.581250000003</v>
       </c>
@@ -8964,7 +8956,7 @@
         <v>5691</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3">
       <c r="A159" s="1">
         <v>42178.418055555558</v>
       </c>
@@ -8975,7 +8967,7 @@
         <v>5739</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3">
       <c r="A160" s="1">
         <v>42070.556250000001</v>
       </c>
@@ -8986,7 +8978,7 @@
         <v>5787</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3">
       <c r="A161" s="1">
         <v>42220.393750000003</v>
       </c>
@@ -8997,7 +8989,7 @@
         <v>5805</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3">
       <c r="A162" s="1">
         <v>42336.838194444441</v>
       </c>
@@ -9008,7 +9000,7 @@
         <v>5811</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3">
       <c r="A163" s="1">
         <v>41935.695138888892</v>
       </c>
@@ -9019,7 +9011,7 @@
         <v>5838</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3">
       <c r="A164" s="1">
         <v>41943.383333333331</v>
       </c>
@@ -9030,7 +9022,7 @@
         <v>5856</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3">
       <c r="A165" s="1">
         <v>41610.45416666667</v>
       </c>
@@ -9041,7 +9033,7 @@
         <v>5859</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3">
       <c r="A166" s="1">
         <v>42389.905555555553</v>
       </c>
@@ -9052,7 +9044,7 @@
         <v>6036</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3">
       <c r="A167" s="1">
         <v>42439.484722222223</v>
       </c>
@@ -9063,7 +9055,7 @@
         <v>6378</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3">
       <c r="A168" s="1">
         <v>42238.847222222219</v>
       </c>
@@ -9074,9 +9066,9 @@
         <v>6516</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>42246.575694444437</v>
+        <v>42246.575694444429</v>
       </c>
       <c r="B169" t="s">
         <v>151</v>
@@ -9085,7 +9077,7 @@
         <v>6528</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3">
       <c r="A170" s="1">
         <v>42225.748611111107</v>
       </c>
@@ -9096,7 +9088,7 @@
         <v>6576</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3">
       <c r="A171" s="1">
         <v>42337.46597222222</v>
       </c>
@@ -9107,7 +9099,7 @@
         <v>6585</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3">
       <c r="A172" s="1">
         <v>42390.761805555558</v>
       </c>
@@ -9118,7 +9110,7 @@
         <v>6618</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3">
       <c r="A173" s="1">
         <v>42286.981249999997</v>
       </c>
@@ -9129,7 +9121,7 @@
         <v>6636</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3">
       <c r="A174" s="1">
         <v>41618.644444444442</v>
       </c>
@@ -9140,9 +9132,9 @@
         <v>6705</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3">
       <c r="A175" s="1">
-        <v>42204.433333333327</v>
+        <v>42204.43333333332</v>
       </c>
       <c r="B175" t="s">
         <v>251</v>
@@ -9151,7 +9143,7 @@
         <v>6804</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3">
       <c r="A176" s="1">
         <v>42259.454861111109</v>
       </c>
@@ -9162,7 +9154,7 @@
         <v>6819</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3">
       <c r="A177" s="1">
         <v>41620.411805555559</v>
       </c>
@@ -9173,7 +9165,7 @@
         <v>7158</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3">
       <c r="A178" s="1">
         <v>42361.405555555553</v>
       </c>
@@ -9184,7 +9176,7 @@
         <v>7224</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3">
       <c r="A179" s="1">
         <v>42453.318055555559</v>
       </c>
@@ -9195,7 +9187,7 @@
         <v>7251</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3">
       <c r="A180" s="1">
         <v>42541.586805555547</v>
       </c>
@@ -9206,7 +9198,7 @@
         <v>7293</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3">
       <c r="A181" s="1">
         <v>42240.570833333331</v>
       </c>
@@ -9217,7 +9209,7 @@
         <v>7317</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3">
       <c r="A182" s="1">
         <v>42286.82708333333</v>
       </c>
@@ -9228,7 +9220,7 @@
         <v>7380</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3">
       <c r="A183" s="1">
         <v>41842.604861111111</v>
       </c>
@@ -9239,9 +9231,9 @@
         <v>7422</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3">
       <c r="A184" s="1">
-        <v>41864.410416666673</v>
+        <v>41864.41041666668</v>
       </c>
       <c r="B184" t="s">
         <v>368</v>
@@ -9250,7 +9242,7 @@
         <v>7494</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3">
       <c r="A185" s="1">
         <v>41744.600694444453</v>
       </c>
@@ -9261,7 +9253,7 @@
         <v>7620</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3">
       <c r="A186" s="1">
         <v>42323.396527777782</v>
       </c>
@@ -9272,7 +9264,7 @@
         <v>7629</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3">
       <c r="A187" s="1">
         <v>42247.379861111112</v>
       </c>
@@ -9283,7 +9275,7 @@
         <v>7845</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3">
       <c r="A188" s="1">
         <v>41660.543055555558</v>
       </c>
@@ -9294,7 +9286,7 @@
         <v>8016</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3">
       <c r="A189" s="1">
         <v>42555.552777777782</v>
       </c>
@@ -9305,7 +9297,7 @@
         <v>8028</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3">
       <c r="A190" s="1">
         <v>41870.402777777781</v>
       </c>
@@ -9316,7 +9308,7 @@
         <v>8118</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3">
       <c r="A191" s="1">
         <v>41948.461805555547</v>
       </c>
@@ -9327,7 +9319,7 @@
         <v>8121</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3">
       <c r="A192" s="1">
         <v>42443.436111111107</v>
       </c>
@@ -9338,9 +9330,9 @@
         <v>8130</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193" s="1">
-        <v>42168.745833333327</v>
+        <v>42168.74583333332</v>
       </c>
       <c r="B193" t="s">
         <v>218</v>
@@ -9349,7 +9341,7 @@
         <v>8235</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194" s="1">
         <v>41567.54791666667</v>
       </c>
@@ -9360,7 +9352,7 @@
         <v>8331</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195" s="1">
         <v>42198.400000000001</v>
       </c>
@@ -9371,7 +9363,7 @@
         <v>8340</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196" s="1">
         <v>41731.640277777777</v>
       </c>
@@ -9382,7 +9374,7 @@
         <v>8364</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3">
       <c r="A197" s="1">
         <v>42186.640972222223</v>
       </c>
@@ -9393,7 +9385,7 @@
         <v>8475</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3">
       <c r="A198" s="1">
         <v>42515.662499999999</v>
       </c>
@@ -9404,7 +9396,7 @@
         <v>8487</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3">
       <c r="A199" s="1">
         <v>42545.916666666657</v>
       </c>
@@ -9415,7 +9407,7 @@
         <v>8499</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3">
       <c r="A200" s="1">
         <v>42562.757638888892</v>
       </c>
@@ -9426,7 +9418,7 @@
         <v>8604</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3">
       <c r="A201" s="1">
         <v>42205.459027777782</v>
       </c>
@@ -9437,7 +9429,7 @@
         <v>8613</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3">
       <c r="A202" s="1">
         <v>42191.670138888891</v>
       </c>
@@ -9448,7 +9440,7 @@
         <v>8658</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3">
       <c r="A203" s="1">
         <v>42290.469444444447</v>
       </c>
@@ -9459,7 +9451,7 @@
         <v>8835</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3">
       <c r="A204" s="1">
         <v>42561.637499999997</v>
       </c>
@@ -9470,7 +9462,7 @@
         <v>8952</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3">
       <c r="A205" s="1">
         <v>42296.467361111107</v>
       </c>
@@ -9481,7 +9473,7 @@
         <v>8976</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3">
       <c r="A206" s="1">
         <v>42226.469444444447</v>
       </c>
@@ -9492,7 +9484,7 @@
         <v>9162</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3">
       <c r="A207" s="1">
         <v>42248.607638888891</v>
       </c>
@@ -9503,7 +9495,7 @@
         <v>9342</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3">
       <c r="A208" s="1">
         <v>42380.418749999997</v>
       </c>
@@ -9514,7 +9506,7 @@
         <v>9372</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3">
       <c r="A209" s="1">
         <v>42221.390972222223</v>
       </c>
@@ -9525,7 +9517,7 @@
         <v>9441</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3">
       <c r="A210" s="1">
         <v>42211.458333333343</v>
       </c>
@@ -9536,7 +9528,7 @@
         <v>9558</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3">
       <c r="A211" s="1">
         <v>42568.480555555558</v>
       </c>
@@ -9547,7 +9539,7 @@
         <v>9618</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3">
       <c r="A212" s="1">
         <v>42556.697916666657</v>
       </c>
@@ -9558,7 +9550,7 @@
         <v>9678</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3">
       <c r="A213" s="1">
         <v>41712.577777777777</v>
       </c>
@@ -9569,7 +9561,7 @@
         <v>9708</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3">
       <c r="A214" s="1">
         <v>42423.718055555553</v>
       </c>
@@ -9580,7 +9572,7 @@
         <v>9726</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3">
       <c r="A215" s="1">
         <v>42319.694444444453</v>
       </c>
@@ -9591,7 +9583,7 @@
         <v>9753</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3">
       <c r="A216" s="1">
         <v>41743.79791666667</v>
       </c>
@@ -9602,9 +9594,9 @@
         <v>9978</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3">
       <c r="A217" s="1">
-        <v>41933.629166666673</v>
+        <v>41933.62916666668</v>
       </c>
       <c r="B217" t="s">
         <v>128</v>
@@ -9613,7 +9605,7 @@
         <v>10173</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3">
       <c r="A218" s="1">
         <v>42298.425000000003</v>
       </c>
@@ -9624,7 +9616,7 @@
         <v>10260</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3">
       <c r="A219" s="1">
         <v>42317.407638888893</v>
       </c>
@@ -9635,7 +9627,7 @@
         <v>10281</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3">
       <c r="A220" s="1">
         <v>42583.70208333333</v>
       </c>
@@ -9646,7 +9638,7 @@
         <v>10341</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3">
       <c r="A221" s="1">
         <v>41582.651388888888</v>
       </c>
@@ -9657,7 +9649,7 @@
         <v>10383</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3">
       <c r="A222" s="1">
         <v>41666.427777777782</v>
       </c>
@@ -9668,7 +9660,7 @@
         <v>10392</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3">
       <c r="A223" s="1">
         <v>42364.423611111109</v>
       </c>
@@ -9679,7 +9671,7 @@
         <v>10461</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3">
       <c r="A224" s="1">
         <v>42569.404861111107</v>
       </c>
@@ -9690,7 +9682,7 @@
         <v>10467</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3">
       <c r="A225" s="1">
         <v>42211.484722222223</v>
       </c>
@@ -9701,7 +9693,7 @@
         <v>10551</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3">
       <c r="A226" s="1">
         <v>42160.034722222219</v>
       </c>
@@ -9712,7 +9704,7 @@
         <v>10602</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3">
       <c r="A227" s="1">
         <v>41666.416666666657</v>
       </c>
@@ -9723,7 +9715,7 @@
         <v>10893</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3">
       <c r="A228" s="1">
         <v>42361.553472222222</v>
       </c>
@@ -9734,7 +9726,7 @@
         <v>10965</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3">
       <c r="A229" s="1">
         <v>42230.934027777781</v>
       </c>
@@ -9745,7 +9737,7 @@
         <v>10998</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3">
       <c r="A230" s="1">
         <v>41596.763888888891</v>
       </c>
@@ -9756,7 +9748,7 @@
         <v>11007</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3">
       <c r="A231" s="1">
         <v>42406.412499999999</v>
       </c>
@@ -9767,7 +9759,7 @@
         <v>11322</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3">
       <c r="A232" s="1">
         <v>42186.652777777781</v>
       </c>
@@ -9778,7 +9770,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3">
       <c r="A233" s="1">
         <v>42542.569444444453</v>
       </c>
@@ -9789,7 +9781,7 @@
         <v>11340</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3">
       <c r="A234" s="1">
         <v>42481.438888888893</v>
       </c>
@@ -9800,7 +9792,7 @@
         <v>11454</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3">
       <c r="A235" s="1">
         <v>42186.636805555558</v>
       </c>
@@ -9811,7 +9803,7 @@
         <v>11496</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3">
       <c r="A236" s="1">
         <v>42127.304861111108</v>
       </c>
@@ -9822,7 +9814,7 @@
         <v>11535</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3">
       <c r="A237" s="1">
         <v>42537.563888888893</v>
       </c>
@@ -9833,7 +9825,7 @@
         <v>11958</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3">
       <c r="A238" s="1">
         <v>41668.682638888888</v>
       </c>
@@ -9844,7 +9836,7 @@
         <v>11985</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3">
       <c r="A239" s="1">
         <v>41841.556944444441</v>
       </c>
@@ -9855,7 +9847,7 @@
         <v>12027</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3">
       <c r="A240" s="1">
         <v>41862.595833333333</v>
       </c>
@@ -9866,7 +9858,7 @@
         <v>12339</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3">
       <c r="A241" s="1">
         <v>41851.657638888893</v>
       </c>
@@ -9877,7 +9869,7 @@
         <v>12342</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3">
       <c r="A242" s="1">
         <v>41674.595138888893</v>
       </c>
@@ -9888,7 +9880,7 @@
         <v>12693</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3">
       <c r="A243" s="1">
         <v>42465.465277777781</v>
       </c>
@@ -9899,7 +9891,7 @@
         <v>12759</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3">
       <c r="A244" s="1">
         <v>42329.572916666657</v>
       </c>
@@ -9910,7 +9902,7 @@
         <v>12798</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3">
       <c r="A245" s="1">
         <v>41606.474999999999</v>
       </c>
@@ -9921,7 +9913,7 @@
         <v>13641</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3">
       <c r="A246" s="1">
         <v>42492.474305555559</v>
       </c>
@@ -9932,7 +9924,7 @@
         <v>13818</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3">
       <c r="A247" s="1">
         <v>42346.613888888889</v>
       </c>
@@ -9943,9 +9935,9 @@
         <v>13947</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3">
       <c r="A248" s="1">
-        <v>42373.888194444437</v>
+        <v>42373.888194444429</v>
       </c>
       <c r="B248" t="s">
         <v>249</v>
@@ -9954,7 +9946,7 @@
         <v>14142</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3">
       <c r="A249" s="1">
         <v>42350.637499999997</v>
       </c>
@@ -9965,7 +9957,7 @@
         <v>14154</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3">
       <c r="A250" s="1">
         <v>41585.409722222219</v>
       </c>
@@ -9976,7 +9968,7 @@
         <v>14226</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3">
       <c r="A251" s="1">
         <v>41632.607638888891</v>
       </c>
@@ -9987,7 +9979,7 @@
         <v>14520</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3">
       <c r="A252" s="1">
         <v>42286.813194444447</v>
       </c>
@@ -9998,7 +9990,7 @@
         <v>14910</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3">
       <c r="A253" s="1">
         <v>41729.443749999999</v>
       </c>
@@ -10009,7 +10001,7 @@
         <v>14961</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3">
       <c r="A254" s="1">
         <v>42107.5625</v>
       </c>
@@ -10020,7 +10012,7 @@
         <v>14997</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3">
       <c r="A255" s="1">
         <v>42024.573611111111</v>
       </c>
@@ -10031,7 +10023,7 @@
         <v>15390</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3">
       <c r="A256" s="1">
         <v>41660.628472222219</v>
       </c>
@@ -10042,7 +10034,7 @@
         <v>15486</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3">
       <c r="A257" s="1">
         <v>41674.454861111109</v>
       </c>
@@ -10053,9 +10045,9 @@
         <v>15717</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3">
       <c r="A258" s="1">
-        <v>41871.441666666673</v>
+        <v>41871.44166666668</v>
       </c>
       <c r="B258" t="s">
         <v>351</v>
@@ -10064,7 +10056,7 @@
         <v>15759</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3">
       <c r="A259" s="1">
         <v>41835.386805555558</v>
       </c>
@@ -10075,7 +10067,7 @@
         <v>16635</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3">
       <c r="A260" s="1">
         <v>42242.747916666667</v>
       </c>
@@ -10086,7 +10078,7 @@
         <v>16662</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3">
       <c r="A261" s="1">
         <v>42171.48541666667</v>
       </c>
@@ -10097,7 +10089,7 @@
         <v>16743</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3">
       <c r="A262" s="1">
         <v>42597.431250000001</v>
       </c>
@@ -10108,7 +10100,7 @@
         <v>16743</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3">
       <c r="A263" s="1">
         <v>42366.616666666669</v>
       </c>
@@ -10119,7 +10111,7 @@
         <v>17373</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3">
       <c r="A264" s="1">
         <v>42417.461805555547</v>
       </c>
@@ -10130,7 +10122,7 @@
         <v>17403</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3">
       <c r="A265" s="1">
         <v>41736.869444444441</v>
       </c>
@@ -10141,9 +10133,9 @@
         <v>17517</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3">
       <c r="A266" s="1">
-        <v>41581.606944444437</v>
+        <v>41581.606944444429</v>
       </c>
       <c r="B266" t="s">
         <v>243</v>
@@ -10152,7 +10144,7 @@
         <v>17529</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3">
       <c r="A267" s="1">
         <v>42501.603472222218</v>
       </c>
@@ -10163,7 +10155,7 @@
         <v>17544</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3">
       <c r="A268" s="1">
         <v>41723.61041666667</v>
       </c>
@@ -10174,7 +10166,7 @@
         <v>17721</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3">
       <c r="A269" s="1">
         <v>42543.43472222222</v>
       </c>
@@ -10185,7 +10177,7 @@
         <v>18147</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3">
       <c r="A270" s="1">
         <v>42421.666666666657</v>
       </c>
@@ -10196,7 +10188,7 @@
         <v>18435</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3">
       <c r="A271" s="1">
         <v>42325.663888888892</v>
       </c>
@@ -10207,7 +10199,7 @@
         <v>18759</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3">
       <c r="A272" s="1">
         <v>41711.42083333333</v>
       </c>
@@ -10218,7 +10210,7 @@
         <v>18765</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3">
       <c r="A273" s="1">
         <v>41941.5625</v>
       </c>
@@ -10229,7 +10221,7 @@
         <v>18795</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3">
       <c r="A274" s="1">
         <v>42247.398611111108</v>
       </c>
@@ -10240,7 +10232,7 @@
         <v>19179</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3">
       <c r="A275" s="1">
         <v>42428.662499999999</v>
       </c>
@@ -10251,7 +10243,7 @@
         <v>19290</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3">
       <c r="A276" s="1">
         <v>42486.582638888889</v>
       </c>
@@ -10262,7 +10254,7 @@
         <v>19482</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3">
       <c r="A277" s="1">
         <v>41757.393750000003</v>
       </c>
@@ -10273,7 +10265,7 @@
         <v>19485</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3">
       <c r="A278" s="1">
         <v>41885.470138888893</v>
       </c>
@@ -10284,7 +10276,7 @@
         <v>19500</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3">
       <c r="A279" s="1">
         <v>42339.67291666667</v>
       </c>
@@ -10295,7 +10287,7 @@
         <v>19632</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3">
       <c r="A280" s="1">
         <v>42162.679166666669</v>
       </c>
@@ -10306,7 +10298,7 @@
         <v>19728</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3">
       <c r="A281" s="1">
         <v>41932.651388888888</v>
       </c>
@@ -10317,7 +10309,7 @@
         <v>19797</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3">
       <c r="A282" s="1">
         <v>42484.522222222222</v>
       </c>
@@ -10328,7 +10320,7 @@
         <v>19845</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3">
       <c r="A283" s="1">
         <v>41668.427777777782</v>
       </c>
@@ -10339,7 +10331,7 @@
         <v>19926</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3">
       <c r="A284" s="1">
         <v>42557.43472222222</v>
       </c>
@@ -10350,7 +10342,7 @@
         <v>19962</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3">
       <c r="A285" s="1">
         <v>42477.661805555559</v>
       </c>
@@ -10361,7 +10353,7 @@
         <v>19968</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3">
       <c r="A286" s="1">
         <v>42211.460416666669</v>
       </c>
@@ -10372,7 +10364,7 @@
         <v>20124</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3">
       <c r="A287" s="1">
         <v>42329.95416666667</v>
       </c>
@@ -10383,7 +10375,7 @@
         <v>20301</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3">
       <c r="A288" s="1">
         <v>42300.770138888889</v>
       </c>
@@ -10394,9 +10386,9 @@
         <v>20391</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3">
       <c r="A289" s="1">
-        <v>42255.731944444437</v>
+        <v>42255.731944444429</v>
       </c>
       <c r="B289" t="s">
         <v>210</v>
@@ -10405,7 +10397,7 @@
         <v>20541</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3">
       <c r="A290" s="1">
         <v>42561.418055555558</v>
       </c>
@@ -10416,7 +10408,7 @@
         <v>20637</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3">
       <c r="A291" s="1">
         <v>42322.847222222219</v>
       </c>
@@ -10427,7 +10419,7 @@
         <v>20697</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3">
       <c r="A292" s="1">
         <v>41658.550000000003</v>
       </c>
@@ -10438,7 +10430,7 @@
         <v>20958</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3">
       <c r="A293" s="1">
         <v>41847.474305555559</v>
       </c>
@@ -10449,7 +10441,7 @@
         <v>21159</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3">
       <c r="A294" s="1">
         <v>41823.5625</v>
       </c>
@@ -10460,7 +10452,7 @@
         <v>21168</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3">
       <c r="A295" s="1">
         <v>42204.711805555547</v>
       </c>
@@ -10471,9 +10463,9 @@
         <v>21327</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3">
       <c r="A296" s="1">
-        <v>41637.754166666673</v>
+        <v>41637.75416666668</v>
       </c>
       <c r="B296" t="s">
         <v>292</v>
@@ -10482,9 +10474,9 @@
         <v>21921</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3">
       <c r="A297" s="1">
-        <v>41758.433333333327</v>
+        <v>41758.43333333332</v>
       </c>
       <c r="B297" t="s">
         <v>375</v>
@@ -10493,7 +10485,7 @@
         <v>22563</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3">
       <c r="A298" s="1">
         <v>41863.699305555558</v>
       </c>
@@ -10504,7 +10496,7 @@
         <v>22764</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3">
       <c r="A299" s="1">
         <v>42218.693749999999</v>
       </c>
@@ -10515,7 +10507,7 @@
         <v>22899</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3">
       <c r="A300" s="1">
         <v>42451.51666666667</v>
       </c>
@@ -10526,7 +10518,7 @@
         <v>23109</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3">
       <c r="A301" s="1">
         <v>42132.505555555559</v>
       </c>
@@ -10537,7 +10529,7 @@
         <v>23430</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3">
       <c r="A302" s="1">
         <v>42171.536805555559</v>
       </c>
@@ -10548,7 +10540,7 @@
         <v>23490</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3">
       <c r="A303" s="1">
         <v>41597.765972222223</v>
       </c>
@@ -10559,7 +10551,7 @@
         <v>23565</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3">
       <c r="A304" s="1">
         <v>42363.573611111111</v>
       </c>
@@ -10570,7 +10562,7 @@
         <v>23769</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3">
       <c r="A305" s="1">
         <v>42319.573611111111</v>
       </c>
@@ -10581,7 +10573,7 @@
         <v>24018</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3">
       <c r="A306" s="1">
         <v>42343.720833333333</v>
       </c>
@@ -10592,7 +10584,7 @@
         <v>25329</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3">
       <c r="A307" s="1">
         <v>41717.40625</v>
       </c>
@@ -10603,7 +10595,7 @@
         <v>26007</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3">
       <c r="A308" s="1">
         <v>42406.158333333333</v>
       </c>
@@ -10614,7 +10606,7 @@
         <v>26724</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3">
       <c r="A309" s="1">
         <v>41829.743750000001</v>
       </c>
@@ -10625,7 +10617,7 @@
         <v>26862</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3">
       <c r="A310" s="1">
         <v>42323.775694444441</v>
       </c>
@@ -10636,7 +10628,7 @@
         <v>27204</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3">
       <c r="A311" s="1">
         <v>41767.572916666657</v>
       </c>
@@ -10647,7 +10639,7 @@
         <v>27876</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3">
       <c r="A312" s="1">
         <v>41556.709722222222</v>
       </c>
@@ -10658,7 +10650,7 @@
         <v>28536</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3">
       <c r="A313" s="1">
         <v>42554.726388888892</v>
       </c>
@@ -10669,7 +10661,7 @@
         <v>28722</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3">
       <c r="A314" s="1">
         <v>42331.462500000001</v>
       </c>
@@ -10680,7 +10672,7 @@
         <v>28734</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3">
       <c r="A315" s="1">
         <v>42444.465277777781</v>
       </c>
@@ -10691,7 +10683,7 @@
         <v>28905</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3">
       <c r="A316" s="1">
         <v>41765.011805555558</v>
       </c>
@@ -10702,7 +10694,7 @@
         <v>28917</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3">
       <c r="A317" s="1">
         <v>41744.574305555558</v>
       </c>
@@ -10713,7 +10705,7 @@
         <v>29502</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3">
       <c r="A318" s="1">
         <v>42408.65902777778</v>
       </c>
@@ -10724,7 +10716,7 @@
         <v>29502</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3">
       <c r="A319" s="1">
         <v>41632.618055555547</v>
       </c>
@@ -10735,7 +10727,7 @@
         <v>29892</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3">
       <c r="A320" s="1">
         <v>42332.565972222219</v>
       </c>
@@ -10746,7 +10738,7 @@
         <v>29904</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3">
       <c r="A321" s="1">
         <v>42238.504861111112</v>
       </c>
@@ -10757,7 +10749,7 @@
         <v>30153</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3">
       <c r="A322" s="1">
         <v>42368.584027777782</v>
       </c>
@@ -10768,7 +10760,7 @@
         <v>30288</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3">
       <c r="A323" s="1">
         <v>42031.734027777777</v>
       </c>
@@ -10779,9 +10771,9 @@
         <v>31119</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3">
       <c r="A324" s="1">
-        <v>41953.481944444437</v>
+        <v>41953.481944444429</v>
       </c>
       <c r="B324" t="s">
         <v>311</v>
@@ -10790,7 +10782,7 @@
         <v>31152</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3">
       <c r="A325" s="1">
         <v>42484.563194444447</v>
       </c>
@@ -10801,9 +10793,9 @@
         <v>31191</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3">
       <c r="A326" s="1">
-        <v>41757.450694444437</v>
+        <v>41757.450694444429</v>
       </c>
       <c r="B326" t="s">
         <v>267</v>
@@ -10812,7 +10804,7 @@
         <v>31557</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3">
       <c r="A327" s="1">
         <v>41823.5625</v>
       </c>
@@ -10823,7 +10815,7 @@
         <v>31803</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3">
       <c r="A328" s="1">
         <v>41609.457638888889</v>
       </c>
@@ -10834,7 +10826,7 @@
         <v>32895</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3">
       <c r="A329" s="1">
         <v>42255.619444444441</v>
       </c>
@@ -10845,7 +10837,7 @@
         <v>32895</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3">
       <c r="A330" s="1">
         <v>42387.60833333333</v>
       </c>
@@ -10856,7 +10848,7 @@
         <v>33006</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3">
       <c r="A331" s="1">
         <v>42303.461805555547</v>
       </c>
@@ -10867,7 +10859,7 @@
         <v>33459</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3">
       <c r="A332" s="1">
         <v>42308.673611111109</v>
       </c>
@@ -10878,9 +10870,9 @@
         <v>33459</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3">
       <c r="A333" s="1">
-        <v>41588.669444444437</v>
+        <v>41588.669444444429</v>
       </c>
       <c r="B333" t="s">
         <v>401</v>
@@ -10889,7 +10881,7 @@
         <v>33519</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3">
       <c r="A334" s="1">
         <v>41850.402777777781</v>
       </c>
@@ -10900,7 +10892,7 @@
         <v>34056</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3">
       <c r="A335" s="1">
         <v>42420.615972222222</v>
       </c>
@@ -10911,9 +10903,9 @@
         <v>34350</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3">
       <c r="A336" s="1">
-        <v>42226.402083333327</v>
+        <v>42226.40208333332</v>
       </c>
       <c r="B336" t="s">
         <v>345</v>
@@ -10922,7 +10914,7 @@
         <v>34425</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3">
       <c r="A337" s="1">
         <v>42235.678472222222</v>
       </c>
@@ -10933,7 +10925,7 @@
         <v>34530</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3">
       <c r="A338" s="1">
         <v>42286.717361111107</v>
       </c>
@@ -10944,7 +10936,7 @@
         <v>35454</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3">
       <c r="A339" s="1">
         <v>41674.592361111107</v>
       </c>
@@ -10955,7 +10947,7 @@
         <v>35724</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3">
       <c r="A340" s="1">
         <v>42032.689583333333</v>
       </c>
@@ -10966,7 +10958,7 @@
         <v>36177</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3">
       <c r="A341" s="1">
         <v>42478.615972222222</v>
       </c>
@@ -10977,7 +10969,7 @@
         <v>36339</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3">
       <c r="A342" s="1">
         <v>42186.647916666669</v>
       </c>
@@ -10988,7 +10980,7 @@
         <v>36645</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3">
       <c r="A343" s="1">
         <v>41746.290972222218</v>
       </c>
@@ -10999,7 +10991,7 @@
         <v>36915</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3">
       <c r="A344" s="1">
         <v>41578.637499999997</v>
       </c>
@@ -11010,7 +11002,7 @@
         <v>37095</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3">
       <c r="A345" s="1">
         <v>41756.780555555553</v>
       </c>
@@ -11021,7 +11013,7 @@
         <v>37392</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3">
       <c r="A346" s="1">
         <v>41729.445138888892</v>
       </c>
@@ -11032,7 +11024,7 @@
         <v>38304</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3">
       <c r="A347" s="1">
         <v>41660.5</v>
       </c>
@@ -11043,7 +11035,7 @@
         <v>38595</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3">
       <c r="A348" s="1">
         <v>41531.642361111109</v>
       </c>
@@ -11054,7 +11046,7 @@
         <v>38667</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3">
       <c r="A349" s="1">
         <v>42355.273611111108</v>
       </c>
@@ -11065,7 +11057,7 @@
         <v>38775</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3">
       <c r="A350" s="1">
         <v>42245.542361111111</v>
       </c>
@@ -11076,7 +11068,7 @@
         <v>39081</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3">
       <c r="A351" s="1">
         <v>41681.684027777781</v>
       </c>
@@ -11087,7 +11079,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3">
       <c r="A352" s="1">
         <v>41666.418055555558</v>
       </c>
@@ -11098,9 +11090,9 @@
         <v>41484</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3">
       <c r="A353" s="1">
-        <v>41680.549305555563</v>
+        <v>41680.549305555571</v>
       </c>
       <c r="B353" t="s">
         <v>315</v>
@@ -11109,7 +11101,7 @@
         <v>42267</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3">
       <c r="A354" s="1">
         <v>41835.623611111107</v>
       </c>
@@ -11120,7 +11112,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3">
       <c r="A355" s="1">
         <v>41788.654861111107</v>
       </c>
@@ -11131,7 +11123,7 @@
         <v>44457</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3">
       <c r="A356" s="1">
         <v>42438.658333333333</v>
       </c>
@@ -11142,7 +11134,7 @@
         <v>44481</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3">
       <c r="A357" s="1">
         <v>41674.593055555553</v>
       </c>
@@ -11153,7 +11145,7 @@
         <v>44625</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3">
       <c r="A358" s="1">
         <v>42226.54583333333</v>
       </c>
@@ -11164,7 +11156,7 @@
         <v>44817</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3">
       <c r="A359" s="1">
         <v>41941.563888888893</v>
       </c>
@@ -11175,7 +11167,7 @@
         <v>44823</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3">
       <c r="A360" s="1">
         <v>41885.540972222218</v>
       </c>
@@ -11186,7 +11178,7 @@
         <v>44964</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3">
       <c r="A361" s="1">
         <v>42265.842361111107</v>
       </c>
@@ -11197,7 +11189,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3">
       <c r="A362" s="1">
         <v>42211.51458333333</v>
       </c>
@@ -11208,7 +11200,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3">
       <c r="A363" s="1">
         <v>42495.470833333333</v>
       </c>
@@ -11219,7 +11211,7 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3">
       <c r="A364" s="1">
         <v>42217.961111111108</v>
       </c>
@@ -11230,7 +11222,7 @@
         <v>47664</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3">
       <c r="A365" s="1">
         <v>42465.652777777781</v>
       </c>
@@ -11241,7 +11233,7 @@
         <v>49869</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3">
       <c r="A366" s="1">
         <v>41669.438194444447</v>
       </c>
@@ -11252,7 +11244,7 @@
         <v>49935</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3">
       <c r="A367" s="1">
         <v>41675.828472222223</v>
       </c>
@@ -11263,7 +11255,7 @@
         <v>50178</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3">
       <c r="A368" s="1">
         <v>41674.574305555558</v>
       </c>
@@ -11274,7 +11266,7 @@
         <v>50451</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3">
       <c r="A369" s="1">
         <v>42295.7</v>
       </c>
@@ -11285,7 +11277,7 @@
         <v>50922</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3">
       <c r="A370" s="1">
         <v>41556.709722222222</v>
       </c>
@@ -11296,7 +11288,7 @@
         <v>51273</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3">
       <c r="A371" s="1">
         <v>41757.525000000001</v>
       </c>
@@ -11307,9 +11299,9 @@
         <v>51897</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3">
       <c r="A372" s="1">
-        <v>41760.879166666673</v>
+        <v>41760.87916666668</v>
       </c>
       <c r="B372" t="s">
         <v>403</v>
@@ -11318,7 +11310,7 @@
         <v>52071</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3">
       <c r="A373" s="1">
         <v>42323.430555555547</v>
       </c>
@@ -11329,7 +11321,7 @@
         <v>52380</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3">
       <c r="A374" s="1">
         <v>42224.451388888891</v>
       </c>
@@ -11340,7 +11332,7 @@
         <v>52443</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3">
       <c r="A375" s="1">
         <v>42288.385416666657</v>
       </c>
@@ -11351,7 +11343,7 @@
         <v>52650</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3">
       <c r="A376" s="1">
         <v>41674.473611111112</v>
       </c>
@@ -11362,7 +11354,7 @@
         <v>52833</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3">
       <c r="A377" s="1">
         <v>41911.494444444441</v>
       </c>
@@ -11373,7 +11365,7 @@
         <v>53001</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3">
       <c r="A378" s="1">
         <v>42542.761805555558</v>
       </c>
@@ -11384,7 +11376,7 @@
         <v>53013</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3">
       <c r="A379" s="1">
         <v>41738.583333333343</v>
       </c>
@@ -11395,9 +11387,9 @@
         <v>54891</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3">
       <c r="A380" s="1">
-        <v>41745.419444444437</v>
+        <v>41745.419444444429</v>
       </c>
       <c r="B380" t="s">
         <v>306</v>
@@ -11406,7 +11398,7 @@
         <v>55311</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3">
       <c r="A381" s="1">
         <v>42216.893750000003</v>
       </c>
@@ -11417,7 +11409,7 @@
         <v>55344</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3">
       <c r="A382" s="1">
         <v>42351.438194444447</v>
       </c>
@@ -11428,7 +11420,7 @@
         <v>55863</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3">
       <c r="A383" s="1">
         <v>42441.892361111109</v>
       </c>
@@ -11439,7 +11431,7 @@
         <v>56670</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3">
       <c r="A384" s="1">
         <v>42252.421527777777</v>
       </c>
@@ -11450,7 +11442,7 @@
         <v>58500</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3">
       <c r="A385" s="1">
         <v>42337.465277777781</v>
       </c>
@@ -11461,9 +11453,9 @@
         <v>59640</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3">
       <c r="A386" s="1">
-        <v>41729.441666666673</v>
+        <v>41729.44166666668</v>
       </c>
       <c r="B386" t="s">
         <v>386</v>
@@ -11472,7 +11464,7 @@
         <v>59985</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3">
       <c r="A387" s="1">
         <v>41941.563194444447</v>
       </c>
@@ -11483,7 +11475,7 @@
         <v>62061</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3">
       <c r="A388" s="1">
         <v>41848.747916666667</v>
       </c>
@@ -11494,7 +11486,7 @@
         <v>62943</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3">
       <c r="A389" s="1">
         <v>42465.605555555558</v>
       </c>
@@ -11505,9 +11497,9 @@
         <v>63216</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3">
       <c r="A390" s="1">
-        <v>41516.606944444437</v>
+        <v>41516.606944444429</v>
       </c>
       <c r="B390" t="s">
         <v>252</v>
@@ -11516,7 +11508,7 @@
         <v>63243</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3">
       <c r="A391" s="1">
         <v>42114.406944444447</v>
       </c>
@@ -11527,7 +11519,7 @@
         <v>64599</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3">
       <c r="A392" s="1">
         <v>41890.429166666669</v>
       </c>
@@ -11538,9 +11530,9 @@
         <v>65004</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3">
       <c r="A393" s="1">
-        <v>41675.455555555563</v>
+        <v>41675.455555555571</v>
       </c>
       <c r="B393" t="s">
         <v>387</v>
@@ -11549,7 +11541,7 @@
         <v>66540</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3">
       <c r="A394" s="1">
         <v>41715.431250000001</v>
       </c>
@@ -11560,7 +11552,7 @@
         <v>67992</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3">
       <c r="A395" s="1">
         <v>41749.416666666657</v>
       </c>
@@ -11571,7 +11563,7 @@
         <v>68535</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3">
       <c r="A396" s="1">
         <v>42435.698611111111</v>
       </c>
@@ -11582,7 +11574,7 @@
         <v>69975</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3">
       <c r="A397" s="1">
         <v>41673.404861111107</v>
       </c>
@@ -11593,7 +11585,7 @@
         <v>70137</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3">
       <c r="A398" s="1">
         <v>42318.568055555559</v>
       </c>
@@ -11604,7 +11596,7 @@
         <v>71043</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3">
       <c r="A399" s="1">
         <v>41823.561805555553</v>
       </c>
@@ -11615,7 +11607,7 @@
         <v>72129</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3">
       <c r="A400" s="1">
         <v>41677.616666666669</v>
       </c>
@@ -11626,7 +11618,7 @@
         <v>72330</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3">
       <c r="A401" s="1">
         <v>42290.720138888893</v>
       </c>
@@ -11637,9 +11629,9 @@
         <v>73161</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3">
       <c r="A402" s="1">
-        <v>41861.472916666673</v>
+        <v>41861.47291666668</v>
       </c>
       <c r="B402" t="s">
         <v>444</v>
@@ -11648,7 +11640,7 @@
         <v>73443</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3">
       <c r="A403" s="1">
         <v>41583.759027777778</v>
       </c>
@@ -11659,7 +11651,7 @@
         <v>75939</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3">
       <c r="A404" s="1">
         <v>41772.614583333343</v>
       </c>
@@ -11670,7 +11662,7 @@
         <v>75939</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3">
       <c r="A405" s="1">
         <v>41556.709027777782</v>
       </c>
@@ -11681,7 +11673,7 @@
         <v>76353</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3">
       <c r="A406" s="1">
         <v>42219.576388888891</v>
       </c>
@@ -11692,7 +11684,7 @@
         <v>76566</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3">
       <c r="A407" s="1">
         <v>42008.382638888892</v>
       </c>
@@ -11703,7 +11695,7 @@
         <v>83757</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3">
       <c r="A408" s="1">
         <v>42054.622916666667</v>
       </c>
@@ -11714,7 +11706,7 @@
         <v>87396</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3">
       <c r="A409" s="1">
         <v>42162.688194444447</v>
       </c>
@@ -11725,7 +11717,7 @@
         <v>90054</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3">
       <c r="A410" s="1">
         <v>41834.702777777777</v>
       </c>
@@ -11736,7 +11728,7 @@
         <v>92244</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3">
       <c r="A411" s="1">
         <v>41681.62777777778</v>
       </c>
@@ -11747,7 +11739,7 @@
         <v>93945</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3">
       <c r="A412" s="1">
         <v>41556.709027777782</v>
       </c>
@@ -11758,7 +11750,7 @@
         <v>96183</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3">
       <c r="A413" s="1">
         <v>42343.406944444447</v>
       </c>
@@ -11769,7 +11761,7 @@
         <v>97740</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3">
       <c r="A414" s="1">
         <v>41584.574305555558</v>
       </c>
@@ -11780,7 +11772,7 @@
         <v>98808</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3">
       <c r="A415" s="1">
         <v>42009.452777777777</v>
       </c>
@@ -11791,7 +11783,7 @@
         <v>99480</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3">
       <c r="A416" s="1">
         <v>41941.489583333343</v>
       </c>
@@ -11802,7 +11794,7 @@
         <v>99684</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3">
       <c r="A417" s="1">
         <v>41681.533333333333</v>
       </c>
@@ -11813,7 +11805,7 @@
         <v>99777</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3">
       <c r="A418" s="1">
         <v>42027.479861111111</v>
       </c>
@@ -11824,9 +11816,9 @@
         <v>100152</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3">
       <c r="A419" s="1">
-        <v>41659.763194444437</v>
+        <v>41659.763194444429</v>
       </c>
       <c r="B419" t="s">
         <v>361</v>
@@ -11835,7 +11827,7 @@
         <v>102273</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3">
       <c r="A420" s="1">
         <v>41631.472222222219</v>
       </c>
@@ -11846,7 +11838,7 @@
         <v>110742</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3">
       <c r="A421" s="1">
         <v>41835.631944444453</v>
       </c>
@@ -11857,7 +11849,7 @@
         <v>122559</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3">
       <c r="A422" s="1">
         <v>42359.430555555547</v>
       </c>
@@ -11868,7 +11860,7 @@
         <v>123483</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3">
       <c r="A423" s="1">
         <v>42155.502083333333</v>
       </c>
@@ -11879,7 +11871,7 @@
         <v>132069</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3">
       <c r="A424" s="1">
         <v>41941.59097222222</v>
       </c>
@@ -11890,7 +11882,7 @@
         <v>132558</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3">
       <c r="A425" s="1">
         <v>41718.759722222218</v>
       </c>
@@ -11901,7 +11893,7 @@
         <v>136389</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3">
       <c r="A426" s="1">
         <v>41479.59652777778</v>
       </c>
@@ -11912,7 +11904,7 @@
         <v>136959</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3">
       <c r="A427" s="1">
         <v>41673.461805555547</v>
       </c>
@@ -11923,7 +11915,7 @@
         <v>139728</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3">
       <c r="A428" s="1">
         <v>42238.398611111108</v>
       </c>
@@ -11934,7 +11926,7 @@
         <v>147138</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3">
       <c r="A429" s="1">
         <v>42029.470833333333</v>
       </c>
@@ -11945,7 +11937,7 @@
         <v>149556</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3">
       <c r="A430" s="1">
         <v>41613.563194444447</v>
       </c>
@@ -11956,7 +11948,7 @@
         <v>149715</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3">
       <c r="A431" s="1">
         <v>41710.71597222222</v>
       </c>
@@ -11967,7 +11959,7 @@
         <v>156858</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3">
       <c r="A432" s="1">
         <v>41577.557638888888</v>
       </c>
@@ -11978,7 +11970,7 @@
         <v>158184</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3">
       <c r="A433" s="1">
         <v>42053.591666666667</v>
       </c>
@@ -11989,7 +11981,7 @@
         <v>159663</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3">
       <c r="A434" s="1">
         <v>42203.560416666667</v>
       </c>
@@ -12000,7 +11992,7 @@
         <v>165741</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3">
       <c r="A435" s="1">
         <v>41632.689583333333</v>
       </c>
@@ -12011,7 +12003,7 @@
         <v>170535</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3">
       <c r="A436" s="1">
         <v>41857.659722222219</v>
       </c>
@@ -12022,7 +12014,7 @@
         <v>170739</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3">
       <c r="A437" s="1">
         <v>41584.543055555558</v>
       </c>
@@ -12033,7 +12025,7 @@
         <v>181170</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3">
       <c r="A438" s="1">
         <v>41556.708333333343</v>
       </c>
@@ -12044,7 +12036,7 @@
         <v>201855</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3">
       <c r="A439" s="1">
         <v>41692.54791666667</v>
       </c>
@@ -12055,7 +12047,7 @@
         <v>207039</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3">
       <c r="A440" s="1">
         <v>41632.613888888889</v>
       </c>
@@ -12066,7 +12058,7 @@
         <v>215010</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3">
       <c r="A441" s="1">
         <v>41632.609027777777</v>
       </c>
@@ -12077,7 +12069,7 @@
         <v>237585</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3">
       <c r="A442" s="1">
         <v>41632.615277777782</v>
       </c>
@@ -12088,7 +12080,7 @@
         <v>238575</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3">
       <c r="A443" s="1">
         <v>42010.472222222219</v>
       </c>
@@ -12099,7 +12091,7 @@
         <v>250029</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3">
       <c r="A444" s="1">
         <v>42024.573611111111</v>
       </c>
@@ -12110,7 +12102,7 @@
         <v>255231</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3">
       <c r="A445" s="1">
         <v>41632.688888888893</v>
       </c>
@@ -12121,7 +12113,7 @@
         <v>265473</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3">
       <c r="A446" s="1">
         <v>41632.605555555558</v>
       </c>
@@ -12132,7 +12124,7 @@
         <v>268002</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3">
       <c r="A447" s="1">
         <v>41632.612500000003</v>
       </c>
@@ -12143,7 +12135,7 @@
         <v>268599</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3">
       <c r="A448" s="1">
         <v>41722.444444444453</v>
       </c>
@@ -12154,7 +12146,7 @@
         <v>288078</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3">
       <c r="A449" s="1">
         <v>41556.707638888889</v>
       </c>
@@ -12165,7 +12157,7 @@
         <v>296940</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3">
       <c r="A450" s="1">
         <v>41632.689583333333</v>
       </c>
@@ -12176,7 +12168,7 @@
         <v>297213</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3">
       <c r="A451" s="1">
         <v>42432.654166666667</v>
       </c>
@@ -12187,7 +12179,7 @@
         <v>301101</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3">
       <c r="A452" s="1">
         <v>41533.439583333333</v>
       </c>
@@ -12198,7 +12190,7 @@
         <v>312411</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3">
       <c r="A453" s="1">
         <v>41837.404861111107</v>
       </c>
@@ -12209,9 +12201,9 @@
         <v>313872</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3">
       <c r="A454" s="1">
-        <v>41574.558333333327</v>
+        <v>41574.55833333332</v>
       </c>
       <c r="B454" t="s">
         <v>472</v>
@@ -12220,7 +12212,7 @@
         <v>317172</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3">
       <c r="A455" s="1">
         <v>41477.59375</v>
       </c>
@@ -12231,7 +12223,7 @@
         <v>322269</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3">
       <c r="A456" s="1">
         <v>41632.612500000003</v>
       </c>
@@ -12242,7 +12234,7 @@
         <v>336756</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3">
       <c r="A457" s="1">
         <v>41623.727777777778</v>
       </c>
@@ -12253,7 +12245,7 @@
         <v>344760</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3">
       <c r="A458" s="1">
         <v>41531.64166666667</v>
       </c>
@@ -12264,7 +12256,7 @@
         <v>364323</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3">
       <c r="A459" s="1">
         <v>41531.64166666667</v>
       </c>
@@ -12275,7 +12267,7 @@
         <v>382851</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3">
       <c r="A460" s="1">
         <v>41556.682638888888</v>
       </c>
@@ -12286,7 +12278,7 @@
         <v>384315</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3">
       <c r="A461" s="1">
         <v>41531.644444444442</v>
       </c>
@@ -12297,9 +12289,9 @@
         <v>408936</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3">
       <c r="A462" s="1">
-        <v>41574.580555555563</v>
+        <v>41574.580555555571</v>
       </c>
       <c r="B462" t="s">
         <v>450</v>
@@ -12308,7 +12300,7 @@
         <v>420087</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3">
       <c r="A463" s="1">
         <v>41632.651388888888</v>
       </c>
@@ -12319,7 +12311,7 @@
         <v>442464</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3">
       <c r="A464" s="1">
         <v>41816.401388888888</v>
       </c>
@@ -12330,7 +12322,7 @@
         <v>464382</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3">
       <c r="A465" s="1">
         <v>41585.798611111109</v>
       </c>
@@ -12341,7 +12333,7 @@
         <v>467016</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3">
       <c r="A466" s="1">
         <v>41478.738888888889</v>
       </c>
@@ -12352,7 +12344,7 @@
         <v>497781</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3">
       <c r="A467" s="1">
         <v>41556.708333333343</v>
       </c>
@@ -12363,7 +12355,7 @@
         <v>515934</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3">
       <c r="A468" s="1">
         <v>41681.613888888889</v>
       </c>
@@ -12374,7 +12366,7 @@
         <v>523839</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3">
       <c r="A469" s="1">
         <v>41724.90902777778</v>
       </c>
@@ -12385,7 +12377,7 @@
         <v>604179</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3">
       <c r="A470" s="1">
         <v>41632.614583333343</v>
       </c>
@@ -12396,7 +12388,7 @@
         <v>645114</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3">
       <c r="A471" s="1">
         <v>41658.585416666669</v>
       </c>
@@ -12407,7 +12399,7 @@
         <v>788607</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3">
       <c r="A472" s="1">
         <v>41837.737500000003</v>
       </c>
@@ -12418,7 +12410,7 @@
         <v>810180</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3">
       <c r="A473" s="1">
         <v>41652.625</v>
       </c>
@@ -12429,7 +12421,7 @@
         <v>978141</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:3">
       <c r="A474" s="1">
         <v>41531.640972222223</v>
       </c>
@@ -12440,7 +12432,7 @@
         <v>1032588</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3">
       <c r="A475" s="1">
         <v>41603.411111111112</v>
       </c>
@@ -12451,7 +12443,7 @@
         <v>1125729</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:3">
       <c r="A476" s="1">
         <v>41407.456944444442</v>
       </c>
@@ -12462,7 +12454,7 @@
         <v>1189731</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3">
       <c r="A477" s="1">
         <v>41516.609027777777</v>
       </c>
@@ -12473,9 +12465,9 @@
         <v>1583538</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:3">
       <c r="A478" s="1">
-        <v>42218.638194444437</v>
+        <v>42218.638194444429</v>
       </c>
       <c r="B478" t="s">
         <v>471</v>
@@ -12484,7 +12476,7 @@
         <v>1884150</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3">
       <c r="A479" s="1">
         <v>41597.772222222222</v>
       </c>
@@ -12495,7 +12487,7 @@
         <v>2000568</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3">
       <c r="A480" s="1">
         <v>41407.457638888889</v>
       </c>
@@ -12506,7 +12498,7 @@
         <v>2109564</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3">
       <c r="A481" s="1">
         <v>41407.456944444442</v>
       </c>
@@ -12517,7 +12509,7 @@
         <v>2590047</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3">
       <c r="A482" s="1">
         <v>41592.786805555559</v>
       </c>
@@ -12528,7 +12520,7 @@
         <v>3720903</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3">
       <c r="A483" s="1">
         <v>41407.462500000001</v>
       </c>
@@ -12539,7 +12531,7 @@
         <v>4229313</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3">
       <c r="A484" s="1">
         <v>41702.413194444453</v>
       </c>
@@ -12550,7 +12542,7 @@
         <v>5073894</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3">
       <c r="A485" s="1">
         <v>41407.454861111109</v>
       </c>
@@ -12562,9 +12554,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C485">
-    <sortCondition ref="C1"/>
-  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
